--- a/renter-cost-burden/data/renter-cost-burden-by-re.xlsx
+++ b/renter-cost-burden/data/renter-cost-burden-by-re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">DATA_YEAR</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total People of Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Single-race</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -1146,40 +1149,40 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>518</v>
+        <v>275964</v>
       </c>
       <c r="F18" t="n">
-        <v>767</v>
+        <v>310842</v>
       </c>
       <c r="G18" t="n">
-        <v>518</v>
+        <v>268239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.448873483535529</v>
+        <v>0.511508591128987</v>
       </c>
       <c r="I18" t="n">
-        <v>0.453309692671395</v>
+        <v>0.488042379214842</v>
       </c>
       <c r="J18" t="n">
-        <v>0.455584872471416</v>
+        <v>0.508705719926341</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1187,40 +1190,40 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>22051</v>
+        <v>518</v>
       </c>
       <c r="F19" t="n">
-        <v>23703</v>
+        <v>767</v>
       </c>
       <c r="G19" t="n">
-        <v>21828</v>
+        <v>518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.352100531719546</v>
+        <v>0.448873483535529</v>
       </c>
       <c r="I19" t="n">
-        <v>0.34576671723655</v>
+        <v>0.453309692671395</v>
       </c>
       <c r="J19" t="n">
-        <v>0.351034061303914</v>
+        <v>0.455584872471416</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1228,31 +1231,31 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>21948</v>
+        <v>22051</v>
       </c>
       <c r="F20" t="n">
-        <v>23453</v>
+        <v>23703</v>
       </c>
       <c r="G20" t="n">
-        <v>21415</v>
+        <v>21828</v>
       </c>
       <c r="H20" t="n">
-        <v>0.628648354481139</v>
+        <v>0.352100531719546</v>
       </c>
       <c r="I20" t="n">
-        <v>0.611137169063998</v>
+        <v>0.34576671723655</v>
       </c>
       <c r="J20" t="n">
-        <v>0.627123111163172</v>
+        <v>0.351034061303914</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -1269,31 +1272,31 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>20935</v>
+        <v>21948</v>
       </c>
       <c r="F21" t="n">
-        <v>24431</v>
+        <v>23453</v>
       </c>
       <c r="G21" t="n">
-        <v>20658</v>
+        <v>21415</v>
       </c>
       <c r="H21" t="n">
-        <v>0.575168965327765</v>
+        <v>0.628648354481139</v>
       </c>
       <c r="I21" t="n">
-        <v>0.532428191605283</v>
+        <v>0.611137169063998</v>
       </c>
       <c r="J21" t="n">
-        <v>0.573116937161881</v>
+        <v>0.627123111163172</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1310,32 +1313,38 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>2159</v>
-      </c>
-      <c r="F22"/>
+        <v>20935</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24431</v>
+      </c>
       <c r="G22" t="n">
-        <v>2366</v>
+        <v>20658</v>
       </c>
       <c r="H22" t="n">
-        <v>0.379771328056288</v>
-      </c>
-      <c r="I22"/>
+        <v>0.575168965327765</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.532428191605283</v>
+      </c>
       <c r="J22" t="n">
-        <v>0.3890807432988</v>
+        <v>0.573116937161881</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
       <c r="M22" t="s">
         <v>16</v>
       </c>
@@ -1345,27 +1354,27 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>2918</v>
+        <v>2159</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>2950</v>
+        <v>2366</v>
       </c>
       <c r="H23" t="n">
-        <v>0.236160569763678</v>
+        <v>0.379771328056288</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>0.23609443777511</v>
+        <v>0.3890807432988</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1380,27 +1389,27 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>10806</v>
+        <v>2918</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>12714</v>
+        <v>2950</v>
       </c>
       <c r="H24" t="n">
-        <v>0.342308667004562</v>
+        <v>0.236160569763678</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>0.366524446494465</v>
+        <v>0.23609443777511</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1415,27 +1424,27 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>2993</v>
+        <v>10806</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>4257</v>
+        <v>12714</v>
       </c>
       <c r="H25" t="n">
-        <v>0.438213762811127</v>
+        <v>0.342308667004562</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="n">
-        <v>0.500235017626322</v>
+        <v>0.366524446494465</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1450,40 +1459,34 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>1613</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1887</v>
-      </c>
+        <v>2993</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>1474</v>
+        <v>4257</v>
       </c>
       <c r="H26" t="n">
-        <v>0.55601516718373</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.530056179775281</v>
-      </c>
+        <v>0.438213762811127</v>
+      </c>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.561309977151561</v>
+        <v>0.500235017626322</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1491,37 +1494,37 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>1034</v>
+        <v>1613</v>
       </c>
       <c r="F27" t="n">
-        <v>1170</v>
+        <v>1887</v>
       </c>
       <c r="G27" t="n">
-        <v>1034</v>
+        <v>1474</v>
       </c>
       <c r="H27" t="n">
-        <v>0.753095411507647</v>
+        <v>0.55601516718373</v>
       </c>
       <c r="I27" t="n">
-        <v>0.664018161180477</v>
+        <v>0.530056179775281</v>
       </c>
       <c r="J27" t="n">
-        <v>0.755295836376917</v>
+        <v>0.561309977151561</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -1532,40 +1535,40 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>10453</v>
+        <v>1034</v>
       </c>
       <c r="F28" t="n">
-        <v>14015</v>
+        <v>1170</v>
       </c>
       <c r="G28" t="n">
-        <v>9841</v>
+        <v>1034</v>
       </c>
       <c r="H28" t="n">
-        <v>0.604848975812985</v>
+        <v>0.753095411507647</v>
       </c>
       <c r="I28" t="n">
-        <v>0.523729446935725</v>
+        <v>0.664018161180477</v>
       </c>
       <c r="J28" t="n">
-        <v>0.592974210653169</v>
+        <v>0.755295836376917</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1573,31 +1576,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>85716</v>
+        <v>10453</v>
       </c>
       <c r="F29" t="n">
-        <v>94014</v>
+        <v>14015</v>
       </c>
       <c r="G29" t="n">
-        <v>84385</v>
+        <v>9841</v>
       </c>
       <c r="H29" t="n">
-        <v>0.475901239777251</v>
+        <v>0.604848975812985</v>
       </c>
       <c r="I29" t="n">
-        <v>0.454375857869198</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J29" t="n">
-        <v>0.475089939702397</v>
+        <v>0.592974210653169</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -1614,31 +1617,31 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>183144</v>
+        <v>85716</v>
       </c>
       <c r="F30" t="n">
-        <v>183440</v>
+        <v>94014</v>
       </c>
       <c r="G30" t="n">
-        <v>183440</v>
+        <v>84385</v>
       </c>
       <c r="H30" t="n">
-        <v>0.465778229908444</v>
+        <v>0.475901239777251</v>
       </c>
       <c r="I30" t="n">
-        <v>0.466180088234696</v>
+        <v>0.454375857869198</v>
       </c>
       <c r="J30" t="n">
-        <v>0.466180088234696</v>
+        <v>0.475089939702397</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -1655,32 +1658,38 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>18876</v>
-      </c>
-      <c r="F31"/>
+        <v>183144</v>
+      </c>
+      <c r="F31" t="n">
+        <v>183440</v>
+      </c>
       <c r="G31" t="n">
-        <v>22287</v>
+        <v>183440</v>
       </c>
       <c r="H31" t="n">
-        <v>0.334449582735343</v>
-      </c>
-      <c r="I31"/>
+        <v>0.465778229908444</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.466180088234696</v>
+      </c>
       <c r="J31" t="n">
-        <v>0.36078285362774</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
       <c r="M31" t="s">
         <v>16</v>
       </c>
@@ -1690,38 +1699,32 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>29329</v>
-      </c>
-      <c r="F32" t="n">
-        <v>14015</v>
-      </c>
+        <v>18876</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" t="n">
-        <v>32128</v>
+        <v>22287</v>
       </c>
       <c r="H32" t="n">
-        <v>0.397837793844359</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.523729446935725</v>
-      </c>
+        <v>0.334449582735343</v>
+      </c>
+      <c r="I32"/>
       <c r="J32" t="n">
-        <v>0.409952788056654</v>
+        <v>0.36078285362774</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
       </c>
-      <c r="L32" t="s">
-        <v>16</v>
-      </c>
+      <c r="L32"/>
       <c r="M32" t="s">
         <v>16</v>
       </c>
@@ -1731,31 +1734,31 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>97428</v>
+        <v>29329</v>
       </c>
       <c r="F33" t="n">
-        <v>89426</v>
+        <v>14015</v>
       </c>
       <c r="G33" t="n">
-        <v>99055</v>
+        <v>32128</v>
       </c>
       <c r="H33" t="n">
-        <v>0.457221698179617</v>
+        <v>0.397837793844359</v>
       </c>
       <c r="I33" t="n">
-        <v>0.479269835144811</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J33" t="n">
-        <v>0.45884925212042</v>
+        <v>0.409952788056654</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -1775,37 +1778,37 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>124</v>
+        <v>97428</v>
       </c>
       <c r="F34" t="n">
-        <v>144</v>
+        <v>89426</v>
       </c>
       <c r="G34" t="n">
-        <v>121</v>
+        <v>99055</v>
       </c>
       <c r="H34" t="n">
-        <v>0.414715719063545</v>
+        <v>0.457221698179617</v>
       </c>
       <c r="I34" t="n">
-        <v>0.335664335664336</v>
+        <v>0.479269835144811</v>
       </c>
       <c r="J34" t="n">
-        <v>0.418685121107266</v>
+        <v>0.45884925212042</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1816,37 +1819,37 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>496</v>
+        <v>164268</v>
       </c>
       <c r="F35" t="n">
-        <v>605</v>
+        <v>183440</v>
       </c>
       <c r="G35" t="n">
-        <v>496</v>
+        <v>161153</v>
       </c>
       <c r="H35" t="n">
-        <v>0.527659574468085</v>
+        <v>0.487788075222487</v>
       </c>
       <c r="I35" t="n">
-        <v>0.491869918699187</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="J35" t="n">
-        <v>0.535637149028078</v>
+        <v>0.48580739293746</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1854,40 +1857,40 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>798</v>
+        <v>124</v>
       </c>
       <c r="F36" t="n">
-        <v>923</v>
+        <v>144</v>
       </c>
       <c r="G36" t="n">
-        <v>798</v>
+        <v>121</v>
       </c>
       <c r="H36" t="n">
-        <v>0.77027027027027</v>
+        <v>0.414715719063545</v>
       </c>
       <c r="I36" t="n">
-        <v>0.576514678326046</v>
+        <v>0.335664335664336</v>
       </c>
       <c r="J36" t="n">
-        <v>0.780058651026393</v>
+        <v>0.418685121107266</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
         <v>26</v>
       </c>
       <c r="M36" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1895,37 +1898,37 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>1324</v>
+        <v>496</v>
       </c>
       <c r="F37" t="n">
-        <v>1645</v>
+        <v>605</v>
       </c>
       <c r="G37" t="n">
-        <v>1314</v>
+        <v>496</v>
       </c>
       <c r="H37" t="n">
-        <v>0.604566210045662</v>
+        <v>0.527659574468085</v>
       </c>
       <c r="I37" t="n">
-        <v>0.50522113022113</v>
+        <v>0.491869918699187</v>
       </c>
       <c r="J37" t="n">
-        <v>0.602752293577982</v>
+        <v>0.535637149028078</v>
       </c>
       <c r="K37" t="s">
         <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -1936,34 +1939,40 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>142</v>
-      </c>
-      <c r="F38"/>
+        <v>798</v>
+      </c>
+      <c r="F38" t="n">
+        <v>923</v>
+      </c>
       <c r="G38" t="n">
-        <v>142</v>
+        <v>798</v>
       </c>
       <c r="H38" t="n">
-        <v>0.439628482972136</v>
-      </c>
-      <c r="I38"/>
+        <v>0.77027027027027</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.576514678326046</v>
+      </c>
       <c r="J38" t="n">
-        <v>0.421364985163205</v>
+        <v>0.780058651026393</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38"/>
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -1971,34 +1980,40 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>227</v>
-      </c>
-      <c r="F39"/>
+        <v>1324</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1645</v>
+      </c>
       <c r="G39" t="n">
-        <v>227</v>
+        <v>1314</v>
       </c>
       <c r="H39" t="n">
-        <v>0.401060070671378</v>
-      </c>
-      <c r="I39"/>
+        <v>0.604566210045662</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.50522113022113</v>
+      </c>
       <c r="J39" t="n">
-        <v>0.401060070671378</v>
+        <v>0.602752293577982</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39"/>
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
       <c r="M39" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -2006,34 +2021,34 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>1638</v>
+        <v>142</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>2185</v>
+        <v>142</v>
       </c>
       <c r="H40" t="n">
-        <v>0.414368833797116</v>
+        <v>0.439628482972136</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="n">
-        <v>0.465587044534413</v>
+        <v>0.421364985163205</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -2041,34 +2056,34 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>512</v>
+        <v>227</v>
       </c>
       <c r="H41" t="n">
-        <v>0.484375</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="n">
-        <v>0.535564853556485</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -2076,40 +2091,34 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>137</v>
-      </c>
-      <c r="F42" t="n">
-        <v>196</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="n">
-        <v>137</v>
+        <v>2185</v>
       </c>
       <c r="H42" t="n">
-        <v>0.559183673469388</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.642622950819672</v>
-      </c>
+        <v>0.414368833797116</v>
+      </c>
+      <c r="I42"/>
       <c r="J42" t="n">
-        <v>0.559183673469388</v>
+        <v>0.465587044534413</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L42"/>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2117,40 +2126,34 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>139</v>
-      </c>
-      <c r="F43" t="n">
-        <v>139</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="H43" t="n">
-        <v>0.716494845360825</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.716494845360825</v>
-      </c>
+        <v>0.484375</v>
+      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.716494845360825</v>
+        <v>0.535564853556485</v>
       </c>
       <c r="K43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L43"/>
       <c r="M43" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -2158,40 +2161,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>564</v>
+        <v>137</v>
       </c>
       <c r="F44" t="n">
-        <v>1353</v>
+        <v>196</v>
       </c>
       <c r="G44" t="n">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="H44" t="n">
-        <v>0.487046632124352</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="I44" t="n">
-        <v>0.605640107430618</v>
+        <v>0.642622950819672</v>
       </c>
       <c r="J44" t="n">
-        <v>0.431578947368421</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -2199,40 +2202,40 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>9649</v>
+        <v>139</v>
       </c>
       <c r="F45" t="n">
-        <v>10656</v>
+        <v>139</v>
       </c>
       <c r="G45" t="n">
-        <v>9139</v>
+        <v>139</v>
       </c>
       <c r="H45" t="n">
-        <v>0.512046274676289</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="I45" t="n">
-        <v>0.499086693831671</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="J45" t="n">
-        <v>0.503637165215475</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
@@ -2240,40 +2243,40 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>15641</v>
+        <v>564</v>
       </c>
       <c r="F46" t="n">
-        <v>15661</v>
+        <v>1353</v>
       </c>
       <c r="G46" t="n">
-        <v>15661</v>
+        <v>451</v>
       </c>
       <c r="H46" t="n">
-        <v>0.511478090255069</v>
+        <v>0.487046632124352</v>
       </c>
       <c r="I46" t="n">
-        <v>0.511797385620915</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J46" t="n">
-        <v>0.511797385620915</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="K46" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -2281,32 +2284,38 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>2410</v>
-      </c>
-      <c r="F47"/>
+        <v>9649</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10656</v>
+      </c>
       <c r="G47" t="n">
-        <v>3066</v>
+        <v>9139</v>
       </c>
       <c r="H47" t="n">
-        <v>0.424744448360945</v>
-      </c>
-      <c r="I47"/>
+        <v>0.512046274676289</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.499086693831671</v>
+      </c>
       <c r="J47" t="n">
-        <v>0.467948717948718</v>
+        <v>0.503637165215475</v>
       </c>
       <c r="K47" t="s">
         <v>16</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
       <c r="M47" t="s">
         <v>16</v>
       </c>
@@ -2316,31 +2325,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>2974</v>
+        <v>15641</v>
       </c>
       <c r="F48" t="n">
-        <v>1353</v>
+        <v>15661</v>
       </c>
       <c r="G48" t="n">
-        <v>3517</v>
+        <v>15661</v>
       </c>
       <c r="H48" t="n">
-        <v>0.435304449648712</v>
+        <v>0.511478090255069</v>
       </c>
       <c r="I48" t="n">
-        <v>0.605640107430618</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J48" t="n">
-        <v>0.462945899697249</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
@@ -2357,38 +2366,32 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>5992</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5005</v>
-      </c>
+        <v>2410</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="n">
-        <v>6522</v>
+        <v>3066</v>
       </c>
       <c r="H49" t="n">
-        <v>0.510565780504431</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.541139582657585</v>
-      </c>
+        <v>0.424744448360945</v>
+      </c>
+      <c r="I49"/>
       <c r="J49" t="n">
-        <v>0.523687168781115</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49" t="s">
-        <v>16</v>
-      </c>
+      <c r="L49"/>
       <c r="M49" t="s">
         <v>16</v>
       </c>
@@ -2398,40 +2401,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>196</v>
+        <v>2974</v>
       </c>
       <c r="F50" t="n">
-        <v>263</v>
+        <v>1353</v>
       </c>
       <c r="G50" t="n">
-        <v>196</v>
+        <v>3517</v>
       </c>
       <c r="H50" t="n">
-        <v>0.487562189054726</v>
+        <v>0.435304449648712</v>
       </c>
       <c r="I50" t="n">
-        <v>0.335031847133758</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J50" t="n">
-        <v>0.493702770780856</v>
+        <v>0.462945899697249</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -2439,31 +2442,31 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>2953</v>
+        <v>5992</v>
       </c>
       <c r="F51" t="n">
-        <v>3429</v>
+        <v>5005</v>
       </c>
       <c r="G51" t="n">
-        <v>2692</v>
+        <v>6522</v>
       </c>
       <c r="H51" t="n">
-        <v>0.587194273215351</v>
+        <v>0.510565780504431</v>
       </c>
       <c r="I51" t="n">
-        <v>0.553868518817639</v>
+        <v>0.541139582657585</v>
       </c>
       <c r="J51" t="n">
-        <v>0.564597315436242</v>
+        <v>0.523687168781115</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
@@ -2480,31 +2483,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>6495</v>
+        <v>13231</v>
       </c>
       <c r="F52" t="n">
-        <v>7374</v>
+        <v>15661</v>
       </c>
       <c r="G52" t="n">
-        <v>6094</v>
+        <v>12595</v>
       </c>
       <c r="H52" t="n">
-        <v>0.566951815642458</v>
+        <v>0.531237452822613</v>
       </c>
       <c r="I52" t="n">
-        <v>0.542485102626352</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J52" t="n">
-        <v>0.553396294950963</v>
+        <v>0.523744178310047</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
@@ -2521,40 +2524,40 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>6518</v>
+        <v>196</v>
       </c>
       <c r="F53" t="n">
-        <v>7813</v>
+        <v>263</v>
       </c>
       <c r="G53" t="n">
-        <v>6420</v>
+        <v>196</v>
       </c>
       <c r="H53" t="n">
-        <v>0.570253718285214</v>
+        <v>0.487562189054726</v>
       </c>
       <c r="I53" t="n">
-        <v>0.529120953541921</v>
+        <v>0.335031847133758</v>
       </c>
       <c r="J53" t="n">
-        <v>0.567137809187279</v>
+        <v>0.493702770780856</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M53" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -2562,34 +2565,40 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>470</v>
-      </c>
-      <c r="F54"/>
+        <v>2953</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3429</v>
+      </c>
       <c r="G54" t="n">
-        <v>789</v>
+        <v>2692</v>
       </c>
       <c r="H54" t="n">
-        <v>0.260243632336656</v>
-      </c>
-      <c r="I54"/>
+        <v>0.587194273215351</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.553868518817639</v>
+      </c>
       <c r="J54" t="n">
-        <v>0.374821852731591</v>
+        <v>0.564597315436242</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54"/>
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
       <c r="M54" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2597,34 +2606,40 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>760</v>
-      </c>
-      <c r="F55"/>
+        <v>6495</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7374</v>
+      </c>
       <c r="G55" t="n">
-        <v>773</v>
+        <v>6094</v>
       </c>
       <c r="H55" t="n">
-        <v>0.348943985307622</v>
-      </c>
-      <c r="I55"/>
+        <v>0.566951815642458</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.542485102626352</v>
+      </c>
       <c r="J55" t="n">
-        <v>0.349615558570782</v>
+        <v>0.553396294950963</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55"/>
+        <v>16</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
       <c r="M55" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2632,32 +2647,38 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>5483</v>
-      </c>
-      <c r="F56"/>
+        <v>6518</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7813</v>
+      </c>
       <c r="G56" t="n">
-        <v>6865</v>
+        <v>6420</v>
       </c>
       <c r="H56" t="n">
-        <v>0.391670833630974</v>
-      </c>
-      <c r="I56"/>
+        <v>0.570253718285214</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.529120953541921</v>
+      </c>
       <c r="J56" t="n">
-        <v>0.418725221103995</v>
+        <v>0.567137809187279</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
       <c r="M56" t="s">
         <v>16</v>
       </c>
@@ -2667,34 +2688,34 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>1325</v>
+        <v>470</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>2160</v>
+        <v>789</v>
       </c>
       <c r="H57" t="n">
-        <v>0.40006038647343</v>
+        <v>0.260243632336656</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="n">
-        <v>0.495412844036697</v>
+        <v>0.374821852731591</v>
       </c>
       <c r="K57" t="s">
         <v>26</v>
       </c>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -2702,38 +2723,32 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>999</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1136</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>999</v>
+        <v>773</v>
       </c>
       <c r="H58" t="n">
-        <v>0.525236593059937</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.489655172413793</v>
-      </c>
+        <v>0.348943985307622</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>0.533939070016034</v>
+        <v>0.349615558570782</v>
       </c>
       <c r="K58" t="s">
         <v>26</v>
       </c>
-      <c r="L58" t="s">
-        <v>26</v>
-      </c>
+      <c r="L58"/>
       <c r="M58" t="s">
         <v>26</v>
       </c>
@@ -2743,40 +2758,34 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>345</v>
-      </c>
-      <c r="F59" t="n">
-        <v>345</v>
-      </c>
+        <v>5483</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="n">
-        <v>322</v>
+        <v>6865</v>
       </c>
       <c r="H59" t="n">
-        <v>0.596885813148789</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.553772070626003</v>
-      </c>
+        <v>0.391670833630974</v>
+      </c>
+      <c r="I59"/>
       <c r="J59" t="n">
-        <v>0.58018018018018</v>
+        <v>0.418725221103995</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
-      </c>
-      <c r="L59" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L59"/>
       <c r="M59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -2784,38 +2793,32 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>3733</v>
-      </c>
-      <c r="F60" t="n">
-        <v>5281</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="n">
-        <v>3286</v>
+        <v>2160</v>
       </c>
       <c r="H60" t="n">
-        <v>0.604240854645516</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.505407216001531</v>
-      </c>
+        <v>0.40006038647343</v>
+      </c>
+      <c r="I60"/>
       <c r="J60" t="n">
-        <v>0.589417040358744</v>
+        <v>0.495412844036697</v>
       </c>
       <c r="K60" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L60"/>
       <c r="M60" t="s">
         <v>16</v>
       </c>
@@ -2825,40 +2828,40 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>30690</v>
+        <v>999</v>
       </c>
       <c r="F61" t="n">
-        <v>34399</v>
+        <v>1136</v>
       </c>
       <c r="G61" t="n">
-        <v>29444</v>
+        <v>999</v>
       </c>
       <c r="H61" t="n">
-        <v>0.519755449049063</v>
+        <v>0.525236593059937</v>
       </c>
       <c r="I61" t="n">
-        <v>0.500983062202351</v>
+        <v>0.489655172413793</v>
       </c>
       <c r="J61" t="n">
-        <v>0.518188697840587</v>
+        <v>0.533939070016034</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -2866,40 +2869,40 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>59967</v>
+        <v>345</v>
       </c>
       <c r="F62" t="n">
-        <v>60040</v>
+        <v>345</v>
       </c>
       <c r="G62" t="n">
-        <v>60040</v>
+        <v>322</v>
       </c>
       <c r="H62" t="n">
-        <v>0.511153541260005</v>
+        <v>0.596885813148789</v>
       </c>
       <c r="I62" t="n">
-        <v>0.511457534713349</v>
+        <v>0.553772070626003</v>
       </c>
       <c r="J62" t="n">
-        <v>0.511457534713349</v>
+        <v>0.58018018018018</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L62" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -2907,32 +2910,38 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>8038</v>
-      </c>
-      <c r="F63"/>
+        <v>3733</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5281</v>
+      </c>
       <c r="G63" t="n">
-        <v>10587</v>
+        <v>3286</v>
       </c>
       <c r="H63" t="n">
-        <v>0.377459497534633</v>
-      </c>
-      <c r="I63"/>
+        <v>0.604240854645516</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.505407216001531</v>
+      </c>
       <c r="J63" t="n">
-        <v>0.422280722747397</v>
+        <v>0.589417040358744</v>
       </c>
       <c r="K63" t="s">
         <v>16</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
       <c r="M63" t="s">
         <v>16</v>
       </c>
@@ -2942,31 +2951,31 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>11771</v>
+        <v>30690</v>
       </c>
       <c r="F64" t="n">
-        <v>5281</v>
+        <v>34399</v>
       </c>
       <c r="G64" t="n">
-        <v>13873</v>
+        <v>29444</v>
       </c>
       <c r="H64" t="n">
-        <v>0.428457030539075</v>
+        <v>0.519755449049063</v>
       </c>
       <c r="I64" t="n">
-        <v>0.505407216001531</v>
+        <v>0.500983062202351</v>
       </c>
       <c r="J64" t="n">
-        <v>0.452685505449325</v>
+        <v>0.518188697840587</v>
       </c>
       <c r="K64" t="s">
         <v>16</v>
@@ -2983,31 +2992,31 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>29277</v>
+        <v>59967</v>
       </c>
       <c r="F65" t="n">
-        <v>25641</v>
+        <v>60040</v>
       </c>
       <c r="G65" t="n">
-        <v>30596</v>
+        <v>60040</v>
       </c>
       <c r="H65" t="n">
-        <v>0.502436931525656</v>
+        <v>0.511153541260005</v>
       </c>
       <c r="I65" t="n">
-        <v>0.526217497485993</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J65" t="n">
-        <v>0.505142894880219</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
@@ -3027,37 +3036,31 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>226</v>
-      </c>
-      <c r="F66" t="n">
-        <v>319</v>
-      </c>
+        <v>8038</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>184</v>
+        <v>10587</v>
       </c>
       <c r="H66" t="n">
-        <v>0.658892128279883</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.419736842105263</v>
-      </c>
+        <v>0.377459497534633</v>
+      </c>
+      <c r="I66"/>
       <c r="J66" t="n">
-        <v>0.641114982578397</v>
+        <v>0.422280722747397</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
-      </c>
-      <c r="L66" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L66"/>
       <c r="M66" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -3068,28 +3071,28 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>3565</v>
+        <v>11771</v>
       </c>
       <c r="F67" t="n">
-        <v>3854</v>
+        <v>5281</v>
       </c>
       <c r="G67" t="n">
-        <v>3553</v>
+        <v>13873</v>
       </c>
       <c r="H67" t="n">
-        <v>0.529481657507797</v>
+        <v>0.428457030539075</v>
       </c>
       <c r="I67" t="n">
-        <v>0.505177611744659</v>
+        <v>0.505407216001531</v>
       </c>
       <c r="J67" t="n">
-        <v>0.532683658170915</v>
+        <v>0.452685505449325</v>
       </c>
       <c r="K67" t="s">
         <v>16</v>
@@ -3109,28 +3112,28 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>2994</v>
+        <v>29277</v>
       </c>
       <c r="F68" t="n">
-        <v>3282</v>
+        <v>25641</v>
       </c>
       <c r="G68" t="n">
-        <v>2956</v>
+        <v>30596</v>
       </c>
       <c r="H68" t="n">
-        <v>0.672808988764045</v>
+        <v>0.502436931525656</v>
       </c>
       <c r="I68" t="n">
-        <v>0.612085042894442</v>
+        <v>0.526217497485993</v>
       </c>
       <c r="J68" t="n">
-        <v>0.680322209436134</v>
+        <v>0.505142894880219</v>
       </c>
       <c r="K68" t="s">
         <v>16</v>
@@ -3150,28 +3153,28 @@
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>6744</v>
+        <v>51929</v>
       </c>
       <c r="F69" t="n">
-        <v>7840</v>
+        <v>60040</v>
       </c>
       <c r="G69" t="n">
-        <v>6532</v>
+        <v>49453</v>
       </c>
       <c r="H69" t="n">
-        <v>0.636646842254319</v>
+        <v>0.54080314927829</v>
       </c>
       <c r="I69" t="n">
-        <v>0.626949220311875</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J69" t="n">
-        <v>0.630441077116109</v>
+        <v>0.535675213119726</v>
       </c>
       <c r="K69" t="s">
         <v>16</v>
@@ -3188,34 +3191,40 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>382</v>
-      </c>
-      <c r="F70"/>
+        <v>226</v>
+      </c>
+      <c r="F70" t="n">
+        <v>319</v>
+      </c>
       <c r="G70" t="n">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="H70" t="n">
-        <v>0.346328195829556</v>
-      </c>
-      <c r="I70"/>
+        <v>0.658892128279883</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.419736842105263</v>
+      </c>
       <c r="J70" t="n">
-        <v>0.337907375643225</v>
+        <v>0.641114982578397</v>
       </c>
       <c r="K70" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70"/>
+        <v>36</v>
+      </c>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
       <c r="M70" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -3223,34 +3232,40 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>429</v>
-      </c>
-      <c r="F71"/>
+        <v>3565</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3854</v>
+      </c>
       <c r="G71" t="n">
-        <v>488</v>
+        <v>3553</v>
       </c>
       <c r="H71" t="n">
-        <v>0.274823830877643</v>
-      </c>
-      <c r="I71"/>
+        <v>0.529481657507797</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.505177611744659</v>
+      </c>
       <c r="J71" t="n">
-        <v>0.296656534954407</v>
+        <v>0.532683658170915</v>
       </c>
       <c r="K71" t="s">
-        <v>35</v>
-      </c>
-      <c r="L71"/>
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
       <c r="M71" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -3258,32 +3273,38 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>3592</v>
-      </c>
-      <c r="F72"/>
+        <v>2994</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3282</v>
+      </c>
       <c r="G72" t="n">
-        <v>4857</v>
+        <v>2956</v>
       </c>
       <c r="H72" t="n">
-        <v>0.383351120597652</v>
-      </c>
-      <c r="I72"/>
+        <v>0.672808988764045</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.612085042894442</v>
+      </c>
       <c r="J72" t="n">
-        <v>0.421139339287263</v>
+        <v>0.680322209436134</v>
       </c>
       <c r="K72" t="s">
         <v>16</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
       <c r="M72" t="s">
         <v>16</v>
       </c>
@@ -3293,34 +3314,40 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>762</v>
-      </c>
-      <c r="F73"/>
+        <v>6744</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7840</v>
+      </c>
       <c r="G73" t="n">
-        <v>924</v>
+        <v>6532</v>
       </c>
       <c r="H73" t="n">
-        <v>0.483809523809524</v>
-      </c>
-      <c r="I73"/>
+        <v>0.636646842254319</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.626949220311875</v>
+      </c>
       <c r="J73" t="n">
-        <v>0.492012779552716</v>
+        <v>0.630441077116109</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73"/>
+        <v>16</v>
+      </c>
+      <c r="L73" t="s">
+        <v>16</v>
+      </c>
       <c r="M73" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -3328,40 +3355,34 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>219</v>
-      </c>
-      <c r="F74" t="n">
-        <v>243</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" t="n">
-        <v>219</v>
+        <v>394</v>
       </c>
       <c r="H74" t="n">
-        <v>0.39963503649635</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.362686567164179</v>
-      </c>
+        <v>0.346328195829556</v>
+      </c>
+      <c r="I74"/>
       <c r="J74" t="n">
-        <v>0.426070038910506</v>
+        <v>0.337907375643225</v>
       </c>
       <c r="K74" t="s">
-        <v>35</v>
-      </c>
-      <c r="L74" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L74"/>
       <c r="M74" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -3369,38 +3390,32 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>399</v>
-      </c>
-      <c r="F75" t="n">
+        <v>429</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="n">
         <v>488</v>
       </c>
-      <c r="G75" t="n">
-        <v>399</v>
-      </c>
       <c r="H75" t="n">
-        <v>0.757115749525617</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.64635761589404</v>
-      </c>
+        <v>0.274823830877643</v>
+      </c>
+      <c r="I75"/>
       <c r="J75" t="n">
-        <v>0.796407185628742</v>
+        <v>0.296656534954407</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
-      </c>
-      <c r="L75" t="s">
-        <v>26</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L75"/>
       <c r="M75" t="s">
         <v>26</v>
       </c>
@@ -3410,38 +3425,32 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>1980</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2679</v>
-      </c>
+        <v>3592</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="n">
-        <v>1874</v>
+        <v>4857</v>
       </c>
       <c r="H76" t="n">
-        <v>0.665993945509586</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.53505092869982</v>
-      </c>
+        <v>0.383351120597652</v>
+      </c>
+      <c r="I76"/>
       <c r="J76" t="n">
-        <v>0.662424885118416</v>
+        <v>0.421139339287263</v>
       </c>
       <c r="K76" t="s">
         <v>16</v>
       </c>
-      <c r="L76" t="s">
-        <v>16</v>
-      </c>
+      <c r="L76"/>
       <c r="M76" t="s">
         <v>16</v>
       </c>
@@ -3451,40 +3460,34 @@
         <v>2023</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>30409</v>
-      </c>
-      <c r="F77" t="n">
-        <v>32996</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>29321</v>
+        <v>924</v>
       </c>
       <c r="H77" t="n">
-        <v>0.546393790203759</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.525899716298492</v>
-      </c>
+        <v>0.483809523809524</v>
+      </c>
+      <c r="I77"/>
       <c r="J77" t="n">
-        <v>0.546004729893298</v>
+        <v>0.492012779552716</v>
       </c>
       <c r="K77" t="s">
-        <v>16</v>
-      </c>
-      <c r="L77" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L77"/>
       <c r="M77" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -3492,40 +3495,40 @@
         <v>2023</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="F78" t="n">
-        <v>51701</v>
+        <v>243</v>
       </c>
       <c r="G78" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="H78" t="n">
-        <v>0.541768835795871</v>
+        <v>0.39963503649635</v>
       </c>
       <c r="I78" t="n">
-        <v>0.541768835795871</v>
+        <v>0.362686567164179</v>
       </c>
       <c r="J78" t="n">
-        <v>0.541768835795871</v>
+        <v>0.426070038910506</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L78" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
@@ -3533,34 +3536,40 @@
         <v>2023</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>5165</v>
-      </c>
-      <c r="F79"/>
+        <v>399</v>
+      </c>
+      <c r="F79" t="n">
+        <v>488</v>
+      </c>
       <c r="G79" t="n">
-        <v>6663</v>
+        <v>399</v>
       </c>
       <c r="H79" t="n">
-        <v>0.379528253361746</v>
-      </c>
-      <c r="I79"/>
+        <v>0.757115749525617</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.64635761589404</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.410738503267168</v>
+        <v>0.796407185628742</v>
       </c>
       <c r="K79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79"/>
+        <v>26</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -3568,31 +3577,31 @@
         <v>2023</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>7145</v>
+        <v>1980</v>
       </c>
       <c r="F80" t="n">
         <v>2679</v>
       </c>
       <c r="G80" t="n">
-        <v>8537</v>
+        <v>1874</v>
       </c>
       <c r="H80" t="n">
-        <v>0.430888915691714</v>
+        <v>0.665993945509586</v>
       </c>
       <c r="I80" t="n">
         <v>0.53505092869982</v>
       </c>
       <c r="J80" t="n">
-        <v>0.448112959949609</v>
+        <v>0.662424885118416</v>
       </c>
       <c r="K80" t="s">
         <v>16</v>
@@ -3609,39 +3618,238 @@
         <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="n">
+        <v>30409</v>
+      </c>
+      <c r="F81" t="n">
+        <v>32996</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29321</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.546393790203759</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.525899716298492</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.546004729893298</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>51701</v>
+      </c>
+      <c r="F82" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G82" t="n">
+        <v>51701</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5165</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>6663</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.379528253361746</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83" t="n">
+        <v>0.410738503267168</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7145</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2679</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8537</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.430888915691714</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.53505092869982</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.448112959949609</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
         <v>21292</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F85" t="n">
         <v>18705</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G85" t="n">
         <v>22380</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H85" t="n">
         <v>0.535297666934835</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I85" t="n">
         <v>0.572228340675477</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J85" t="n">
         <v>0.536317668767524</v>
       </c>
-      <c r="K81" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="K85" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="n">
+        <v>46536</v>
+      </c>
+      <c r="F86" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G86" t="n">
+        <v>45038</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.568753742926632</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.568604181395819</v>
+      </c>
+      <c r="K86" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3711,7 +3919,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>1064</v>
@@ -3752,7 +3960,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>29065</v>
@@ -3793,7 +4001,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>32235</v>
@@ -3834,7 +4042,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>35521</v>
@@ -3875,7 +4083,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
         <v>25853</v>
@@ -3907,10 +4115,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>8636</v>
@@ -3945,7 +4153,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>2968</v>
@@ -3986,7 +4194,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>1917</v>
@@ -4027,7 +4235,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>16730</v>
@@ -4068,7 +4276,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>156464</v>
@@ -4109,7 +4317,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>310453</v>
@@ -4150,7 +4358,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v>34489</v>
@@ -4185,7 +4393,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v>51219</v>
@@ -4226,7 +4434,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
         <v>153989</v>
@@ -4261,40 +4469,40 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>518</v>
+        <v>275964</v>
       </c>
       <c r="F16" t="n">
-        <v>767</v>
+        <v>310842</v>
       </c>
       <c r="G16" t="n">
-        <v>518</v>
+        <v>268239</v>
       </c>
       <c r="H16" t="n">
-        <v>0.448873483535529</v>
+        <v>0.511508591128987</v>
       </c>
       <c r="I16" t="n">
-        <v>0.453309692671395</v>
+        <v>0.488042379214842</v>
       </c>
       <c r="J16" t="n">
-        <v>0.455584872471416</v>
+        <v>0.508705719926341</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -4302,40 +4510,40 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
-        <v>22051</v>
+        <v>518</v>
       </c>
       <c r="F17" t="n">
-        <v>23703</v>
+        <v>767</v>
       </c>
       <c r="G17" t="n">
-        <v>21828</v>
+        <v>518</v>
       </c>
       <c r="H17" t="n">
-        <v>0.352100531719546</v>
+        <v>0.448873483535529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.34576671723655</v>
+        <v>0.453309692671395</v>
       </c>
       <c r="J17" t="n">
-        <v>0.351034061303914</v>
+        <v>0.455584872471416</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -4343,31 +4551,31 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>21948</v>
+        <v>22051</v>
       </c>
       <c r="F18" t="n">
-        <v>23453</v>
+        <v>23703</v>
       </c>
       <c r="G18" t="n">
-        <v>21415</v>
+        <v>21828</v>
       </c>
       <c r="H18" t="n">
-        <v>0.628648354481139</v>
+        <v>0.352100531719546</v>
       </c>
       <c r="I18" t="n">
-        <v>0.611137169063998</v>
+        <v>0.34576671723655</v>
       </c>
       <c r="J18" t="n">
-        <v>0.627123111163172</v>
+        <v>0.351034061303914</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -4384,31 +4592,31 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>20935</v>
+        <v>21948</v>
       </c>
       <c r="F19" t="n">
-        <v>24431</v>
+        <v>23453</v>
       </c>
       <c r="G19" t="n">
-        <v>20658</v>
+        <v>21415</v>
       </c>
       <c r="H19" t="n">
-        <v>0.575168965327765</v>
+        <v>0.628648354481139</v>
       </c>
       <c r="I19" t="n">
-        <v>0.532428191605283</v>
+        <v>0.611137169063998</v>
       </c>
       <c r="J19" t="n">
-        <v>0.573116937161881</v>
+        <v>0.627123111163172</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -4425,32 +4633,38 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>13724</v>
-      </c>
-      <c r="F20"/>
+        <v>20935</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24431</v>
+      </c>
       <c r="G20" t="n">
-        <v>15664</v>
+        <v>20658</v>
       </c>
       <c r="H20" t="n">
-        <v>0.31244877515709</v>
-      </c>
-      <c r="I20"/>
+        <v>0.575168965327765</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.532428191605283</v>
+      </c>
       <c r="J20" t="n">
-        <v>0.331983977279953</v>
+        <v>0.573116937161881</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
       <c r="M20" t="s">
         <v>16</v>
       </c>
@@ -4460,27 +4674,27 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" t="n">
-        <v>5152</v>
+        <v>13724</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>6623</v>
+        <v>15664</v>
       </c>
       <c r="H21" t="n">
-        <v>0.411666000799041</v>
+        <v>0.31244877515709</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>0.453909944486327</v>
+        <v>0.331983977279953</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -4495,40 +4709,34 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>1613</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1887</v>
-      </c>
+        <v>5152</v>
+      </c>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>1474</v>
+        <v>6623</v>
       </c>
       <c r="H22" t="n">
-        <v>0.55601516718373</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.530056179775281</v>
-      </c>
+        <v>0.411666000799041</v>
+      </c>
+      <c r="I22"/>
       <c r="J22" t="n">
-        <v>0.561309977151561</v>
+        <v>0.453909944486327</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22" t="s">
-        <v>16</v>
-      </c>
+      <c r="L22"/>
       <c r="M22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -4536,37 +4744,37 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>1034</v>
+        <v>1613</v>
       </c>
       <c r="F23" t="n">
-        <v>1170</v>
+        <v>1887</v>
       </c>
       <c r="G23" t="n">
-        <v>1034</v>
+        <v>1474</v>
       </c>
       <c r="H23" t="n">
-        <v>0.753095411507647</v>
+        <v>0.55601516718373</v>
       </c>
       <c r="I23" t="n">
-        <v>0.664018161180477</v>
+        <v>0.530056179775281</v>
       </c>
       <c r="J23" t="n">
-        <v>0.755295836376917</v>
+        <v>0.561309977151561</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
@@ -4577,40 +4785,40 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>10453</v>
+        <v>1034</v>
       </c>
       <c r="F24" t="n">
-        <v>14015</v>
+        <v>1170</v>
       </c>
       <c r="G24" t="n">
-        <v>9841</v>
+        <v>1034</v>
       </c>
       <c r="H24" t="n">
-        <v>0.604848975812985</v>
+        <v>0.753095411507647</v>
       </c>
       <c r="I24" t="n">
-        <v>0.523729446935725</v>
+        <v>0.664018161180477</v>
       </c>
       <c r="J24" t="n">
-        <v>0.592974210653169</v>
+        <v>0.755295836376917</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -4618,31 +4826,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>85716</v>
+        <v>10453</v>
       </c>
       <c r="F25" t="n">
-        <v>94014</v>
+        <v>14015</v>
       </c>
       <c r="G25" t="n">
-        <v>84385</v>
+        <v>9841</v>
       </c>
       <c r="H25" t="n">
-        <v>0.475901239777251</v>
+        <v>0.604848975812985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.454375857869198</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J25" t="n">
-        <v>0.475089939702397</v>
+        <v>0.592974210653169</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -4659,31 +4867,31 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>183144</v>
+        <v>85716</v>
       </c>
       <c r="F26" t="n">
-        <v>183440</v>
+        <v>94014</v>
       </c>
       <c r="G26" t="n">
-        <v>183440</v>
+        <v>84385</v>
       </c>
       <c r="H26" t="n">
-        <v>0.465778229908444</v>
+        <v>0.475901239777251</v>
       </c>
       <c r="I26" t="n">
-        <v>0.466180088234696</v>
+        <v>0.454375857869198</v>
       </c>
       <c r="J26" t="n">
-        <v>0.466180088234696</v>
+        <v>0.475089939702397</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -4700,32 +4908,38 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
-        <v>18876</v>
-      </c>
-      <c r="F27"/>
+        <v>183144</v>
+      </c>
+      <c r="F27" t="n">
+        <v>183440</v>
+      </c>
       <c r="G27" t="n">
-        <v>22287</v>
+        <v>183440</v>
       </c>
       <c r="H27" t="n">
-        <v>0.334449582735343</v>
-      </c>
-      <c r="I27"/>
+        <v>0.465778229908444</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.466180088234696</v>
+      </c>
       <c r="J27" t="n">
-        <v>0.36078285362774</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
       <c r="M27" t="s">
         <v>16</v>
       </c>
@@ -4735,38 +4949,32 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>29329</v>
-      </c>
-      <c r="F28" t="n">
-        <v>14015</v>
-      </c>
+        <v>18876</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="n">
-        <v>32128</v>
+        <v>22287</v>
       </c>
       <c r="H28" t="n">
-        <v>0.397837793844359</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.523729446935725</v>
-      </c>
+        <v>0.334449582735343</v>
+      </c>
+      <c r="I28"/>
       <c r="J28" t="n">
-        <v>0.409952788056654</v>
+        <v>0.36078285362774</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
       </c>
-      <c r="L28" t="s">
-        <v>16</v>
-      </c>
+      <c r="L28"/>
       <c r="M28" t="s">
         <v>16</v>
       </c>
@@ -4776,31 +4984,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>97428</v>
+        <v>29329</v>
       </c>
       <c r="F29" t="n">
-        <v>89426</v>
+        <v>14015</v>
       </c>
       <c r="G29" t="n">
-        <v>99055</v>
+        <v>32128</v>
       </c>
       <c r="H29" t="n">
-        <v>0.457221698179617</v>
+        <v>0.397837793844359</v>
       </c>
       <c r="I29" t="n">
-        <v>0.479269835144811</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J29" t="n">
-        <v>0.45884925212042</v>
+        <v>0.409952788056654</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -4820,37 +5028,37 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>124</v>
+        <v>97428</v>
       </c>
       <c r="F30" t="n">
-        <v>144</v>
+        <v>89426</v>
       </c>
       <c r="G30" t="n">
-        <v>121</v>
+        <v>99055</v>
       </c>
       <c r="H30" t="n">
-        <v>0.414715719063545</v>
+        <v>0.457221698179617</v>
       </c>
       <c r="I30" t="n">
-        <v>0.335664335664336</v>
+        <v>0.479269835144811</v>
       </c>
       <c r="J30" t="n">
-        <v>0.418685121107266</v>
+        <v>0.45884925212042</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -4861,37 +5069,37 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>496</v>
+        <v>164268</v>
       </c>
       <c r="F31" t="n">
-        <v>605</v>
+        <v>183440</v>
       </c>
       <c r="G31" t="n">
-        <v>496</v>
+        <v>161153</v>
       </c>
       <c r="H31" t="n">
-        <v>0.527659574468085</v>
+        <v>0.487788075222487</v>
       </c>
       <c r="I31" t="n">
-        <v>0.491869918699187</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="J31" t="n">
-        <v>0.535637149028078</v>
+        <v>0.48580739293746</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -4899,40 +5107,40 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>798</v>
+        <v>124</v>
       </c>
       <c r="F32" t="n">
-        <v>923</v>
+        <v>144</v>
       </c>
       <c r="G32" t="n">
-        <v>798</v>
+        <v>121</v>
       </c>
       <c r="H32" t="n">
-        <v>0.77027027027027</v>
+        <v>0.414715719063545</v>
       </c>
       <c r="I32" t="n">
-        <v>0.576514678326046</v>
+        <v>0.335664335664336</v>
       </c>
       <c r="J32" t="n">
-        <v>0.780058651026393</v>
+        <v>0.418685121107266</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
         <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -4940,37 +5148,37 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>1324</v>
+        <v>496</v>
       </c>
       <c r="F33" t="n">
-        <v>1645</v>
+        <v>605</v>
       </c>
       <c r="G33" t="n">
-        <v>1314</v>
+        <v>496</v>
       </c>
       <c r="H33" t="n">
-        <v>0.604566210045662</v>
+        <v>0.527659574468085</v>
       </c>
       <c r="I33" t="n">
-        <v>0.50522113022113</v>
+        <v>0.491869918699187</v>
       </c>
       <c r="J33" t="n">
-        <v>0.602752293577982</v>
+        <v>0.535637149028078</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -4981,34 +5189,40 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" t="n">
-        <v>1865</v>
-      </c>
-      <c r="F34"/>
+        <v>798</v>
+      </c>
+      <c r="F34" t="n">
+        <v>923</v>
+      </c>
       <c r="G34" t="n">
-        <v>2412</v>
+        <v>798</v>
       </c>
       <c r="H34" t="n">
-        <v>0.412701925204691</v>
-      </c>
-      <c r="I34"/>
+        <v>0.77027027027027</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.576514678326046</v>
+      </c>
       <c r="J34" t="n">
-        <v>0.458642327438677</v>
+        <v>0.780058651026393</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34"/>
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -5016,32 +5230,38 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
       <c r="E35" t="n">
-        <v>545</v>
-      </c>
-      <c r="F35"/>
+        <v>1324</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1645</v>
+      </c>
       <c r="G35" t="n">
-        <v>654</v>
+        <v>1314</v>
       </c>
       <c r="H35" t="n">
-        <v>0.471861471861472</v>
-      </c>
-      <c r="I35"/>
+        <v>0.604566210045662</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.50522113022113</v>
+      </c>
       <c r="J35" t="n">
-        <v>0.505800464037123</v>
+        <v>0.602752293577982</v>
       </c>
       <c r="K35" t="s">
         <v>26</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
       <c r="M35" t="s">
         <v>26</v>
       </c>
@@ -5051,40 +5271,34 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>137</v>
-      </c>
-      <c r="F36" t="n">
-        <v>196</v>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="n">
-        <v>137</v>
+        <v>2412</v>
       </c>
       <c r="H36" t="n">
-        <v>0.559183673469388</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.642622950819672</v>
-      </c>
+        <v>0.412701925204691</v>
+      </c>
+      <c r="I36"/>
       <c r="J36" t="n">
-        <v>0.559183673469388</v>
+        <v>0.458642327438677</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L36"/>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -5092,40 +5306,34 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>139</v>
-      </c>
-      <c r="F37" t="n">
-        <v>139</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>139</v>
+        <v>654</v>
       </c>
       <c r="H37" t="n">
-        <v>0.716494845360825</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.716494845360825</v>
-      </c>
+        <v>0.471861471861472</v>
+      </c>
+      <c r="I37"/>
       <c r="J37" t="n">
-        <v>0.716494845360825</v>
+        <v>0.505800464037123</v>
       </c>
       <c r="K37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L37"/>
       <c r="M37" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -5133,40 +5341,40 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="n">
-        <v>564</v>
+        <v>137</v>
       </c>
       <c r="F38" t="n">
-        <v>1353</v>
+        <v>196</v>
       </c>
       <c r="G38" t="n">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="H38" t="n">
-        <v>0.487046632124352</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="I38" t="n">
-        <v>0.605640107430618</v>
+        <v>0.642622950819672</v>
       </c>
       <c r="J38" t="n">
-        <v>0.431578947368421</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -5174,40 +5382,40 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>9649</v>
+        <v>139</v>
       </c>
       <c r="F39" t="n">
-        <v>10656</v>
+        <v>139</v>
       </c>
       <c r="G39" t="n">
-        <v>9139</v>
+        <v>139</v>
       </c>
       <c r="H39" t="n">
-        <v>0.512046274676289</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="I39" t="n">
-        <v>0.499086693831671</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="J39" t="n">
-        <v>0.503637165215475</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -5215,40 +5423,40 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>15641</v>
+        <v>564</v>
       </c>
       <c r="F40" t="n">
-        <v>15661</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="n">
-        <v>15661</v>
+        <v>451</v>
       </c>
       <c r="H40" t="n">
-        <v>0.511478090255069</v>
+        <v>0.487046632124352</v>
       </c>
       <c r="I40" t="n">
-        <v>0.511797385620915</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J40" t="n">
-        <v>0.511797385620915</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -5256,32 +5464,38 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>2410</v>
-      </c>
-      <c r="F41"/>
+        <v>9649</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10656</v>
+      </c>
       <c r="G41" t="n">
-        <v>3066</v>
+        <v>9139</v>
       </c>
       <c r="H41" t="n">
-        <v>0.424744448360945</v>
-      </c>
-      <c r="I41"/>
+        <v>0.512046274676289</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.499086693831671</v>
+      </c>
       <c r="J41" t="n">
-        <v>0.467948717948718</v>
+        <v>0.503637165215475</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
       <c r="M41" t="s">
         <v>16</v>
       </c>
@@ -5291,31 +5505,31 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>2974</v>
+        <v>15641</v>
       </c>
       <c r="F42" t="n">
-        <v>1353</v>
+        <v>15661</v>
       </c>
       <c r="G42" t="n">
-        <v>3517</v>
+        <v>15661</v>
       </c>
       <c r="H42" t="n">
-        <v>0.435304449648712</v>
+        <v>0.511478090255069</v>
       </c>
       <c r="I42" t="n">
-        <v>0.605640107430618</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J42" t="n">
-        <v>0.462945899697249</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="K42" t="s">
         <v>16</v>
@@ -5332,38 +5546,32 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>5992</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5005</v>
-      </c>
+        <v>2410</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>6522</v>
+        <v>3066</v>
       </c>
       <c r="H43" t="n">
-        <v>0.510565780504431</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.541139582657585</v>
-      </c>
+        <v>0.424744448360945</v>
+      </c>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.523687168781115</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
       </c>
-      <c r="L43" t="s">
-        <v>16</v>
-      </c>
+      <c r="L43"/>
       <c r="M43" t="s">
         <v>16</v>
       </c>
@@ -5373,40 +5581,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>196</v>
+        <v>2974</v>
       </c>
       <c r="F44" t="n">
-        <v>263</v>
+        <v>1353</v>
       </c>
       <c r="G44" t="n">
-        <v>196</v>
+        <v>3517</v>
       </c>
       <c r="H44" t="n">
-        <v>0.487562189054726</v>
+        <v>0.435304449648712</v>
       </c>
       <c r="I44" t="n">
-        <v>0.335031847133758</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J44" t="n">
-        <v>0.493702770780856</v>
+        <v>0.462945899697249</v>
       </c>
       <c r="K44" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -5414,31 +5622,31 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" t="n">
-        <v>2953</v>
+        <v>5992</v>
       </c>
       <c r="F45" t="n">
-        <v>3429</v>
+        <v>5005</v>
       </c>
       <c r="G45" t="n">
-        <v>2692</v>
+        <v>6522</v>
       </c>
       <c r="H45" t="n">
-        <v>0.587194273215351</v>
+        <v>0.510565780504431</v>
       </c>
       <c r="I45" t="n">
-        <v>0.553868518817639</v>
+        <v>0.541139582657585</v>
       </c>
       <c r="J45" t="n">
-        <v>0.564597315436242</v>
+        <v>0.523687168781115</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
@@ -5455,31 +5663,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>6495</v>
+        <v>13231</v>
       </c>
       <c r="F46" t="n">
-        <v>7374</v>
+        <v>15661</v>
       </c>
       <c r="G46" t="n">
-        <v>6094</v>
+        <v>12595</v>
       </c>
       <c r="H46" t="n">
-        <v>0.566951815642458</v>
+        <v>0.531237452822613</v>
       </c>
       <c r="I46" t="n">
-        <v>0.542485102626352</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J46" t="n">
-        <v>0.553396294950963</v>
+        <v>0.523744178310047</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
@@ -5496,40 +5704,40 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
-        <v>6518</v>
+        <v>196</v>
       </c>
       <c r="F47" t="n">
-        <v>7813</v>
+        <v>263</v>
       </c>
       <c r="G47" t="n">
-        <v>6420</v>
+        <v>196</v>
       </c>
       <c r="H47" t="n">
-        <v>0.570253718285214</v>
+        <v>0.487562189054726</v>
       </c>
       <c r="I47" t="n">
-        <v>0.529120953541921</v>
+        <v>0.335031847133758</v>
       </c>
       <c r="J47" t="n">
-        <v>0.567137809187279</v>
+        <v>0.493702770780856</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L47" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
@@ -5537,32 +5745,38 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>6243</v>
-      </c>
-      <c r="F48"/>
+        <v>2953</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3429</v>
+      </c>
       <c r="G48" t="n">
-        <v>7638</v>
+        <v>2692</v>
       </c>
       <c r="H48" t="n">
-        <v>0.385918279038141</v>
-      </c>
-      <c r="I48"/>
+        <v>0.587194273215351</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.553868518817639</v>
+      </c>
       <c r="J48" t="n">
-        <v>0.410512737826508</v>
+        <v>0.564597315436242</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
       <c r="M48" t="s">
         <v>16</v>
       </c>
@@ -5572,32 +5786,38 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
       <c r="E49" t="n">
-        <v>1795</v>
-      </c>
-      <c r="F49"/>
+        <v>6495</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7374</v>
+      </c>
       <c r="G49" t="n">
-        <v>2949</v>
+        <v>6094</v>
       </c>
       <c r="H49" t="n">
-        <v>0.350722938647909</v>
-      </c>
-      <c r="I49"/>
+        <v>0.566951815642458</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.542485102626352</v>
+      </c>
       <c r="J49" t="n">
-        <v>0.45614849187935</v>
+        <v>0.553396294950963</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
       <c r="M49" t="s">
         <v>16</v>
       </c>
@@ -5607,40 +5827,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>999</v>
+        <v>6518</v>
       </c>
       <c r="F50" t="n">
-        <v>1136</v>
+        <v>7813</v>
       </c>
       <c r="G50" t="n">
-        <v>999</v>
+        <v>6420</v>
       </c>
       <c r="H50" t="n">
-        <v>0.525236593059937</v>
+        <v>0.570253718285214</v>
       </c>
       <c r="I50" t="n">
-        <v>0.489655172413793</v>
+        <v>0.529120953541921</v>
       </c>
       <c r="J50" t="n">
-        <v>0.533939070016034</v>
+        <v>0.567137809187279</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -5648,40 +5868,34 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>345</v>
-      </c>
-      <c r="F51" t="n">
-        <v>345</v>
-      </c>
+        <v>6243</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
-        <v>322</v>
+        <v>7638</v>
       </c>
       <c r="H51" t="n">
-        <v>0.596885813148789</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.553772070626003</v>
-      </c>
+        <v>0.385918279038141</v>
+      </c>
+      <c r="I51"/>
       <c r="J51" t="n">
-        <v>0.58018018018018</v>
+        <v>0.410512737826508</v>
       </c>
       <c r="K51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L51"/>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -5689,38 +5903,32 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>3733</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5281</v>
-      </c>
+        <v>1795</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>3286</v>
+        <v>2949</v>
       </c>
       <c r="H52" t="n">
-        <v>0.604240854645516</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.505407216001531</v>
-      </c>
+        <v>0.350722938647909</v>
+      </c>
+      <c r="I52"/>
       <c r="J52" t="n">
-        <v>0.589417040358744</v>
+        <v>0.45614849187935</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
       </c>
-      <c r="L52" t="s">
-        <v>16</v>
-      </c>
+      <c r="L52"/>
       <c r="M52" t="s">
         <v>16</v>
       </c>
@@ -5730,40 +5938,40 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
-        <v>30690</v>
+        <v>999</v>
       </c>
       <c r="F53" t="n">
-        <v>34399</v>
+        <v>1136</v>
       </c>
       <c r="G53" t="n">
-        <v>29444</v>
+        <v>999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.519755449049063</v>
+        <v>0.525236593059937</v>
       </c>
       <c r="I53" t="n">
-        <v>0.500983062202351</v>
+        <v>0.489655172413793</v>
       </c>
       <c r="J53" t="n">
-        <v>0.518188697840587</v>
+        <v>0.533939070016034</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -5771,40 +5979,40 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>59967</v>
+        <v>345</v>
       </c>
       <c r="F54" t="n">
-        <v>60040</v>
+        <v>345</v>
       </c>
       <c r="G54" t="n">
-        <v>60040</v>
+        <v>322</v>
       </c>
       <c r="H54" t="n">
-        <v>0.511153541260005</v>
+        <v>0.596885813148789</v>
       </c>
       <c r="I54" t="n">
-        <v>0.511457534713349</v>
+        <v>0.553772070626003</v>
       </c>
       <c r="J54" t="n">
-        <v>0.511457534713349</v>
+        <v>0.58018018018018</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L54" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
@@ -5812,32 +6020,38 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>8038</v>
-      </c>
-      <c r="F55"/>
+        <v>3733</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5281</v>
+      </c>
       <c r="G55" t="n">
-        <v>10587</v>
+        <v>3286</v>
       </c>
       <c r="H55" t="n">
-        <v>0.377459497534633</v>
-      </c>
-      <c r="I55"/>
+        <v>0.604240854645516</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.505407216001531</v>
+      </c>
       <c r="J55" t="n">
-        <v>0.422280722747397</v>
+        <v>0.589417040358744</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
       <c r="M55" t="s">
         <v>16</v>
       </c>
@@ -5847,31 +6061,31 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
-        <v>11771</v>
+        <v>30690</v>
       </c>
       <c r="F56" t="n">
-        <v>5281</v>
+        <v>34399</v>
       </c>
       <c r="G56" t="n">
-        <v>13873</v>
+        <v>29444</v>
       </c>
       <c r="H56" t="n">
-        <v>0.428457030539075</v>
+        <v>0.519755449049063</v>
       </c>
       <c r="I56" t="n">
-        <v>0.505407216001531</v>
+        <v>0.500983062202351</v>
       </c>
       <c r="J56" t="n">
-        <v>0.452685505449325</v>
+        <v>0.518188697840587</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
@@ -5888,31 +6102,31 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>29277</v>
+        <v>59967</v>
       </c>
       <c r="F57" t="n">
-        <v>25641</v>
+        <v>60040</v>
       </c>
       <c r="G57" t="n">
-        <v>30596</v>
+        <v>60040</v>
       </c>
       <c r="H57" t="n">
-        <v>0.502436931525656</v>
+        <v>0.511153541260005</v>
       </c>
       <c r="I57" t="n">
-        <v>0.526217497485993</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J57" t="n">
-        <v>0.505142894880219</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
@@ -5932,37 +6146,31 @@
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" t="n">
-        <v>226</v>
-      </c>
-      <c r="F58" t="n">
-        <v>319</v>
-      </c>
+        <v>8038</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>184</v>
+        <v>10587</v>
       </c>
       <c r="H58" t="n">
-        <v>0.658892128279883</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.419736842105263</v>
-      </c>
+        <v>0.377459497534633</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>0.641114982578397</v>
+        <v>0.422280722747397</v>
       </c>
       <c r="K58" t="s">
-        <v>35</v>
-      </c>
-      <c r="L58" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L58"/>
       <c r="M58" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5973,28 +6181,28 @@
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>3565</v>
+        <v>11771</v>
       </c>
       <c r="F59" t="n">
-        <v>3854</v>
+        <v>5281</v>
       </c>
       <c r="G59" t="n">
-        <v>3553</v>
+        <v>13873</v>
       </c>
       <c r="H59" t="n">
-        <v>0.529481657507797</v>
+        <v>0.428457030539075</v>
       </c>
       <c r="I59" t="n">
-        <v>0.505177611744659</v>
+        <v>0.505407216001531</v>
       </c>
       <c r="J59" t="n">
-        <v>0.532683658170915</v>
+        <v>0.452685505449325</v>
       </c>
       <c r="K59" t="s">
         <v>16</v>
@@ -6014,28 +6222,28 @@
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>2994</v>
+        <v>29277</v>
       </c>
       <c r="F60" t="n">
-        <v>3282</v>
+        <v>25641</v>
       </c>
       <c r="G60" t="n">
-        <v>2956</v>
+        <v>30596</v>
       </c>
       <c r="H60" t="n">
-        <v>0.672808988764045</v>
+        <v>0.502436931525656</v>
       </c>
       <c r="I60" t="n">
-        <v>0.612085042894442</v>
+        <v>0.526217497485993</v>
       </c>
       <c r="J60" t="n">
-        <v>0.680322209436134</v>
+        <v>0.505142894880219</v>
       </c>
       <c r="K60" t="s">
         <v>16</v>
@@ -6055,28 +6263,28 @@
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>6744</v>
+        <v>51929</v>
       </c>
       <c r="F61" t="n">
-        <v>7840</v>
+        <v>60040</v>
       </c>
       <c r="G61" t="n">
-        <v>6532</v>
+        <v>49453</v>
       </c>
       <c r="H61" t="n">
-        <v>0.636646842254319</v>
+        <v>0.54080314927829</v>
       </c>
       <c r="I61" t="n">
-        <v>0.626949220311875</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J61" t="n">
-        <v>0.630441077116109</v>
+        <v>0.535675213119726</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
@@ -6093,34 +6301,40 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="n">
-        <v>4021</v>
-      </c>
-      <c r="F62"/>
+        <v>226</v>
+      </c>
+      <c r="F62" t="n">
+        <v>319</v>
+      </c>
       <c r="G62" t="n">
-        <v>5345</v>
+        <v>184</v>
       </c>
       <c r="H62" t="n">
-        <v>0.367852895435001</v>
-      </c>
-      <c r="I62"/>
+        <v>0.658892128279883</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.419736842105263</v>
+      </c>
       <c r="J62" t="n">
-        <v>0.405600242828957</v>
+        <v>0.641114982578397</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62"/>
+        <v>36</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -6128,34 +6342,40 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
         <v>40</v>
       </c>
-      <c r="D63" t="s">
-        <v>39</v>
-      </c>
       <c r="E63" t="n">
-        <v>1144</v>
-      </c>
-      <c r="F63"/>
+        <v>3565</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3854</v>
+      </c>
       <c r="G63" t="n">
-        <v>1318</v>
+        <v>3553</v>
       </c>
       <c r="H63" t="n">
-        <v>0.427184466019417</v>
-      </c>
-      <c r="I63"/>
+        <v>0.529481657507797</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.505177611744659</v>
+      </c>
       <c r="J63" t="n">
-        <v>0.432982917214192</v>
+        <v>0.532683658170915</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63"/>
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
       <c r="M63" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -6163,40 +6383,40 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>219</v>
+        <v>2994</v>
       </c>
       <c r="F64" t="n">
-        <v>243</v>
+        <v>3282</v>
       </c>
       <c r="G64" t="n">
-        <v>219</v>
+        <v>2956</v>
       </c>
       <c r="H64" t="n">
-        <v>0.39963503649635</v>
+        <v>0.672808988764045</v>
       </c>
       <c r="I64" t="n">
-        <v>0.362686567164179</v>
+        <v>0.612085042894442</v>
       </c>
       <c r="J64" t="n">
-        <v>0.426070038910506</v>
+        <v>0.680322209436134</v>
       </c>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -6204,40 +6424,40 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>399</v>
+        <v>6744</v>
       </c>
       <c r="F65" t="n">
-        <v>488</v>
+        <v>7840</v>
       </c>
       <c r="G65" t="n">
-        <v>399</v>
+        <v>6532</v>
       </c>
       <c r="H65" t="n">
-        <v>0.757115749525617</v>
+        <v>0.636646842254319</v>
       </c>
       <c r="I65" t="n">
-        <v>0.64635761589404</v>
+        <v>0.626949220311875</v>
       </c>
       <c r="J65" t="n">
-        <v>0.796407185628742</v>
+        <v>0.630441077116109</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -6245,38 +6465,32 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E66" t="n">
-        <v>1980</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2679</v>
-      </c>
+        <v>4021</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>1874</v>
+        <v>5345</v>
       </c>
       <c r="H66" t="n">
-        <v>0.665993945509586</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.53505092869982</v>
-      </c>
+        <v>0.367852895435001</v>
+      </c>
+      <c r="I66"/>
       <c r="J66" t="n">
-        <v>0.662424885118416</v>
+        <v>0.405600242828957</v>
       </c>
       <c r="K66" t="s">
         <v>16</v>
       </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
+      <c r="L66"/>
       <c r="M66" t="s">
         <v>16</v>
       </c>
@@ -6286,40 +6500,34 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>30409</v>
-      </c>
-      <c r="F67" t="n">
-        <v>32996</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="F67"/>
       <c r="G67" t="n">
-        <v>29321</v>
+        <v>1318</v>
       </c>
       <c r="H67" t="n">
-        <v>0.546393790203759</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.525899716298492</v>
-      </c>
+        <v>0.427184466019417</v>
+      </c>
+      <c r="I67"/>
       <c r="J67" t="n">
-        <v>0.546004729893298</v>
+        <v>0.432982917214192</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L67"/>
       <c r="M67" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -6327,40 +6535,40 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E68" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="F68" t="n">
-        <v>51701</v>
+        <v>243</v>
       </c>
       <c r="G68" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="H68" t="n">
-        <v>0.541768835795871</v>
+        <v>0.39963503649635</v>
       </c>
       <c r="I68" t="n">
-        <v>0.541768835795871</v>
+        <v>0.362686567164179</v>
       </c>
       <c r="J68" t="n">
-        <v>0.541768835795871</v>
+        <v>0.426070038910506</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L68" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
@@ -6368,34 +6576,40 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E69" t="n">
-        <v>5165</v>
-      </c>
-      <c r="F69"/>
+        <v>399</v>
+      </c>
+      <c r="F69" t="n">
+        <v>488</v>
+      </c>
       <c r="G69" t="n">
-        <v>6663</v>
+        <v>399</v>
       </c>
       <c r="H69" t="n">
-        <v>0.379528253361746</v>
-      </c>
-      <c r="I69"/>
+        <v>0.757115749525617</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.64635761589404</v>
+      </c>
       <c r="J69" t="n">
-        <v>0.410738503267168</v>
+        <v>0.796407185628742</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69"/>
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -6403,31 +6617,31 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>7145</v>
+        <v>1980</v>
       </c>
       <c r="F70" t="n">
         <v>2679</v>
       </c>
       <c r="G70" t="n">
-        <v>8537</v>
+        <v>1874</v>
       </c>
       <c r="H70" t="n">
-        <v>0.430888915691714</v>
+        <v>0.665993945509586</v>
       </c>
       <c r="I70" t="n">
         <v>0.53505092869982</v>
       </c>
       <c r="J70" t="n">
-        <v>0.448112959949609</v>
+        <v>0.662424885118416</v>
       </c>
       <c r="K70" t="s">
         <v>16</v>
@@ -6444,39 +6658,238 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="n">
+        <v>30409</v>
+      </c>
+      <c r="F71" t="n">
+        <v>32996</v>
+      </c>
+      <c r="G71" t="n">
+        <v>29321</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.546393790203759</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.525899716298492</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.546004729893298</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="n">
+        <v>51701</v>
+      </c>
+      <c r="F72" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G72" t="n">
+        <v>51701</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5165</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="n">
+        <v>6663</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.379528253361746</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73" t="n">
+        <v>0.410738503267168</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7145</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2679</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8537</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.430888915691714</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.53505092869982</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.448112959949609</v>
+      </c>
+      <c r="K74" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
         <v>32</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="n">
+        <v>21292</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18705</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22380</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.535297666934835</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.572228340675477</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.536317668767524</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B76" t="s">
         <v>39</v>
       </c>
-      <c r="E71" t="n">
-        <v>21292</v>
-      </c>
-      <c r="F71" t="n">
-        <v>18705</v>
-      </c>
-      <c r="G71" t="n">
-        <v>22380</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.535297666934835</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.572228340675477</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.536317668767524</v>
-      </c>
-      <c r="K71" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="n">
+        <v>46536</v>
+      </c>
+      <c r="F76" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G76" t="n">
+        <v>45038</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.568753742926632</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.568604181395819</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6546,7 +6959,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>1064</v>
@@ -6587,7 +7000,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
         <v>29065</v>
@@ -6628,7 +7041,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>32235</v>
@@ -6669,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
         <v>35521</v>
@@ -6707,10 +7120,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" t="n">
         <v>34489</v>
@@ -6745,7 +7158,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
         <v>2968</v>
@@ -6786,7 +7199,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>1917</v>
@@ -6827,7 +7240,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>16730</v>
@@ -6868,7 +7281,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>156464</v>
@@ -6909,7 +7322,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>310453</v>
@@ -6950,7 +7363,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
         <v>34489</v>
@@ -6985,7 +7398,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
         <v>51219</v>
@@ -7026,7 +7439,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>153989</v>
@@ -7061,40 +7474,40 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>518</v>
+        <v>275964</v>
       </c>
       <c r="F15" t="n">
-        <v>767</v>
+        <v>310842</v>
       </c>
       <c r="G15" t="n">
-        <v>518</v>
+        <v>268239</v>
       </c>
       <c r="H15" t="n">
-        <v>0.448873483535529</v>
+        <v>0.511508591128987</v>
       </c>
       <c r="I15" t="n">
-        <v>0.453309692671395</v>
+        <v>0.488042379214842</v>
       </c>
       <c r="J15" t="n">
-        <v>0.455584872471416</v>
+        <v>0.508705719926341</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -7102,40 +7515,40 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>22051</v>
+        <v>518</v>
       </c>
       <c r="F16" t="n">
-        <v>23703</v>
+        <v>767</v>
       </c>
       <c r="G16" t="n">
-        <v>21828</v>
+        <v>518</v>
       </c>
       <c r="H16" t="n">
-        <v>0.352100531719546</v>
+        <v>0.448873483535529</v>
       </c>
       <c r="I16" t="n">
-        <v>0.34576671723655</v>
+        <v>0.453309692671395</v>
       </c>
       <c r="J16" t="n">
-        <v>0.351034061303914</v>
+        <v>0.455584872471416</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -7143,31 +7556,31 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>21948</v>
+        <v>22051</v>
       </c>
       <c r="F17" t="n">
-        <v>23453</v>
+        <v>23703</v>
       </c>
       <c r="G17" t="n">
-        <v>21415</v>
+        <v>21828</v>
       </c>
       <c r="H17" t="n">
-        <v>0.628648354481139</v>
+        <v>0.352100531719546</v>
       </c>
       <c r="I17" t="n">
-        <v>0.611137169063998</v>
+        <v>0.34576671723655</v>
       </c>
       <c r="J17" t="n">
-        <v>0.627123111163172</v>
+        <v>0.351034061303914</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -7184,31 +7597,31 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>20935</v>
+        <v>21948</v>
       </c>
       <c r="F18" t="n">
-        <v>24431</v>
+        <v>23453</v>
       </c>
       <c r="G18" t="n">
-        <v>20658</v>
+        <v>21415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.575168965327765</v>
+        <v>0.628648354481139</v>
       </c>
       <c r="I18" t="n">
-        <v>0.532428191605283</v>
+        <v>0.611137169063998</v>
       </c>
       <c r="J18" t="n">
-        <v>0.573116937161881</v>
+        <v>0.627123111163172</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -7225,32 +7638,38 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" t="n">
-        <v>18876</v>
-      </c>
-      <c r="F19"/>
+        <v>20935</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24431</v>
+      </c>
       <c r="G19" t="n">
-        <v>22287</v>
+        <v>20658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.334449582735343</v>
-      </c>
-      <c r="I19"/>
+        <v>0.575168965327765</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.532428191605283</v>
+      </c>
       <c r="J19" t="n">
-        <v>0.36078285362774</v>
+        <v>0.573116937161881</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
       <c r="M19" t="s">
         <v>16</v>
       </c>
@@ -7260,40 +7679,34 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>1613</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1887</v>
-      </c>
+        <v>18876</v>
+      </c>
+      <c r="F20"/>
       <c r="G20" t="n">
-        <v>1474</v>
+        <v>22287</v>
       </c>
       <c r="H20" t="n">
-        <v>0.55601516718373</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.530056179775281</v>
-      </c>
+        <v>0.334449582735343</v>
+      </c>
+      <c r="I20"/>
       <c r="J20" t="n">
-        <v>0.561309977151561</v>
+        <v>0.36078285362774</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
+      <c r="L20"/>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -7301,37 +7714,37 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>1034</v>
+        <v>1613</v>
       </c>
       <c r="F21" t="n">
-        <v>1170</v>
+        <v>1887</v>
       </c>
       <c r="G21" t="n">
-        <v>1034</v>
+        <v>1474</v>
       </c>
       <c r="H21" t="n">
-        <v>0.753095411507647</v>
+        <v>0.55601516718373</v>
       </c>
       <c r="I21" t="n">
-        <v>0.664018161180477</v>
+        <v>0.530056179775281</v>
       </c>
       <c r="J21" t="n">
-        <v>0.755295836376917</v>
+        <v>0.561309977151561</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -7342,40 +7755,40 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>10453</v>
+        <v>1034</v>
       </c>
       <c r="F22" t="n">
-        <v>14015</v>
+        <v>1170</v>
       </c>
       <c r="G22" t="n">
-        <v>9841</v>
+        <v>1034</v>
       </c>
       <c r="H22" t="n">
-        <v>0.604848975812985</v>
+        <v>0.753095411507647</v>
       </c>
       <c r="I22" t="n">
-        <v>0.523729446935725</v>
+        <v>0.664018161180477</v>
       </c>
       <c r="J22" t="n">
-        <v>0.592974210653169</v>
+        <v>0.755295836376917</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -7383,31 +7796,31 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>85716</v>
+        <v>10453</v>
       </c>
       <c r="F23" t="n">
-        <v>94014</v>
+        <v>14015</v>
       </c>
       <c r="G23" t="n">
-        <v>84385</v>
+        <v>9841</v>
       </c>
       <c r="H23" t="n">
-        <v>0.475901239777251</v>
+        <v>0.604848975812985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.454375857869198</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J23" t="n">
-        <v>0.475089939702397</v>
+        <v>0.592974210653169</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -7424,31 +7837,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>183144</v>
+        <v>85716</v>
       </c>
       <c r="F24" t="n">
-        <v>183440</v>
+        <v>94014</v>
       </c>
       <c r="G24" t="n">
-        <v>183440</v>
+        <v>84385</v>
       </c>
       <c r="H24" t="n">
-        <v>0.465778229908444</v>
+        <v>0.475901239777251</v>
       </c>
       <c r="I24" t="n">
-        <v>0.466180088234696</v>
+        <v>0.454375857869198</v>
       </c>
       <c r="J24" t="n">
-        <v>0.466180088234696</v>
+        <v>0.475089939702397</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -7465,32 +7878,38 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>18876</v>
-      </c>
-      <c r="F25"/>
+        <v>183144</v>
+      </c>
+      <c r="F25" t="n">
+        <v>183440</v>
+      </c>
       <c r="G25" t="n">
-        <v>22287</v>
+        <v>183440</v>
       </c>
       <c r="H25" t="n">
-        <v>0.334449582735343</v>
-      </c>
-      <c r="I25"/>
+        <v>0.465778229908444</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.466180088234696</v>
+      </c>
       <c r="J25" t="n">
-        <v>0.36078285362774</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
       <c r="M25" t="s">
         <v>16</v>
       </c>
@@ -7500,38 +7919,32 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>29329</v>
-      </c>
-      <c r="F26" t="n">
-        <v>14015</v>
-      </c>
+        <v>18876</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>32128</v>
+        <v>22287</v>
       </c>
       <c r="H26" t="n">
-        <v>0.397837793844359</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.523729446935725</v>
-      </c>
+        <v>0.334449582735343</v>
+      </c>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.409952788056654</v>
+        <v>0.36078285362774</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
         <v>16</v>
       </c>
@@ -7541,31 +7954,31 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
-        <v>97428</v>
+        <v>29329</v>
       </c>
       <c r="F27" t="n">
-        <v>89426</v>
+        <v>14015</v>
       </c>
       <c r="G27" t="n">
-        <v>99055</v>
+        <v>32128</v>
       </c>
       <c r="H27" t="n">
-        <v>0.457221698179617</v>
+        <v>0.397837793844359</v>
       </c>
       <c r="I27" t="n">
-        <v>0.479269835144811</v>
+        <v>0.523729446935725</v>
       </c>
       <c r="J27" t="n">
-        <v>0.45884925212042</v>
+        <v>0.409952788056654</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -7585,37 +7998,37 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" t="n">
-        <v>124</v>
+        <v>97428</v>
       </c>
       <c r="F28" t="n">
-        <v>144</v>
+        <v>89426</v>
       </c>
       <c r="G28" t="n">
-        <v>121</v>
+        <v>99055</v>
       </c>
       <c r="H28" t="n">
-        <v>0.414715719063545</v>
+        <v>0.457221698179617</v>
       </c>
       <c r="I28" t="n">
-        <v>0.335664335664336</v>
+        <v>0.479269835144811</v>
       </c>
       <c r="J28" t="n">
-        <v>0.418685121107266</v>
+        <v>0.45884925212042</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -7626,37 +8039,37 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n">
-        <v>496</v>
+        <v>164268</v>
       </c>
       <c r="F29" t="n">
-        <v>605</v>
+        <v>183440</v>
       </c>
       <c r="G29" t="n">
-        <v>496</v>
+        <v>161153</v>
       </c>
       <c r="H29" t="n">
-        <v>0.527659574468085</v>
+        <v>0.487788075222487</v>
       </c>
       <c r="I29" t="n">
-        <v>0.491869918699187</v>
+        <v>0.466180088234696</v>
       </c>
       <c r="J29" t="n">
-        <v>0.535637149028078</v>
+        <v>0.48580739293746</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -7664,40 +8077,40 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
-        <v>798</v>
+        <v>124</v>
       </c>
       <c r="F30" t="n">
-        <v>923</v>
+        <v>144</v>
       </c>
       <c r="G30" t="n">
-        <v>798</v>
+        <v>121</v>
       </c>
       <c r="H30" t="n">
-        <v>0.77027027027027</v>
+        <v>0.414715719063545</v>
       </c>
       <c r="I30" t="n">
-        <v>0.576514678326046</v>
+        <v>0.335664335664336</v>
       </c>
       <c r="J30" t="n">
-        <v>0.780058651026393</v>
+        <v>0.418685121107266</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s">
         <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -7705,37 +8118,37 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
-        <v>1324</v>
+        <v>496</v>
       </c>
       <c r="F31" t="n">
-        <v>1645</v>
+        <v>605</v>
       </c>
       <c r="G31" t="n">
-        <v>1314</v>
+        <v>496</v>
       </c>
       <c r="H31" t="n">
-        <v>0.604566210045662</v>
+        <v>0.527659574468085</v>
       </c>
       <c r="I31" t="n">
-        <v>0.50522113022113</v>
+        <v>0.491869918699187</v>
       </c>
       <c r="J31" t="n">
-        <v>0.602752293577982</v>
+        <v>0.535637149028078</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -7746,34 +8159,40 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
       <c r="E32" t="n">
-        <v>2410</v>
-      </c>
-      <c r="F32"/>
+        <v>798</v>
+      </c>
+      <c r="F32" t="n">
+        <v>923</v>
+      </c>
       <c r="G32" t="n">
-        <v>3066</v>
+        <v>798</v>
       </c>
       <c r="H32" t="n">
-        <v>0.424744448360945</v>
-      </c>
-      <c r="I32"/>
+        <v>0.77027027027027</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.576514678326046</v>
+      </c>
       <c r="J32" t="n">
-        <v>0.467948717948718</v>
+        <v>0.780058651026393</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32"/>
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -7781,40 +8200,40 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>1324</v>
       </c>
       <c r="F33" t="n">
-        <v>196</v>
+        <v>1645</v>
       </c>
       <c r="G33" t="n">
-        <v>137</v>
+        <v>1314</v>
       </c>
       <c r="H33" t="n">
-        <v>0.559183673469388</v>
+        <v>0.604566210045662</v>
       </c>
       <c r="I33" t="n">
-        <v>0.642622950819672</v>
+        <v>0.50522113022113</v>
       </c>
       <c r="J33" t="n">
-        <v>0.559183673469388</v>
+        <v>0.602752293577982</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -7822,40 +8241,34 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>139</v>
-      </c>
-      <c r="F34" t="n">
-        <v>139</v>
-      </c>
+        <v>2410</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>139</v>
+        <v>3066</v>
       </c>
       <c r="H34" t="n">
-        <v>0.716494845360825</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.716494845360825</v>
-      </c>
+        <v>0.424744448360945</v>
+      </c>
+      <c r="I34"/>
       <c r="J34" t="n">
-        <v>0.716494845360825</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="K34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L34"/>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -7863,40 +8276,40 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="n">
-        <v>564</v>
+        <v>137</v>
       </c>
       <c r="F35" t="n">
-        <v>1353</v>
+        <v>196</v>
       </c>
       <c r="G35" t="n">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="H35" t="n">
-        <v>0.487046632124352</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="I35" t="n">
-        <v>0.605640107430618</v>
+        <v>0.642622950819672</v>
       </c>
       <c r="J35" t="n">
-        <v>0.431578947368421</v>
+        <v>0.559183673469388</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -7904,40 +8317,40 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" t="n">
-        <v>9649</v>
+        <v>139</v>
       </c>
       <c r="F36" t="n">
-        <v>10656</v>
+        <v>139</v>
       </c>
       <c r="G36" t="n">
-        <v>9139</v>
+        <v>139</v>
       </c>
       <c r="H36" t="n">
-        <v>0.512046274676289</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="I36" t="n">
-        <v>0.499086693831671</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="J36" t="n">
-        <v>0.503637165215475</v>
+        <v>0.716494845360825</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -7945,40 +8358,40 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" t="n">
-        <v>15641</v>
+        <v>564</v>
       </c>
       <c r="F37" t="n">
-        <v>15661</v>
+        <v>1353</v>
       </c>
       <c r="G37" t="n">
-        <v>15661</v>
+        <v>451</v>
       </c>
       <c r="H37" t="n">
-        <v>0.511478090255069</v>
+        <v>0.487046632124352</v>
       </c>
       <c r="I37" t="n">
-        <v>0.511797385620915</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J37" t="n">
-        <v>0.511797385620915</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -7986,32 +8399,38 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" t="n">
-        <v>2410</v>
-      </c>
-      <c r="F38"/>
+        <v>9649</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10656</v>
+      </c>
       <c r="G38" t="n">
-        <v>3066</v>
+        <v>9139</v>
       </c>
       <c r="H38" t="n">
-        <v>0.424744448360945</v>
-      </c>
-      <c r="I38"/>
+        <v>0.512046274676289</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.499086693831671</v>
+      </c>
       <c r="J38" t="n">
-        <v>0.467948717948718</v>
+        <v>0.503637165215475</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
       <c r="M38" t="s">
         <v>16</v>
       </c>
@@ -8021,31 +8440,31 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="n">
-        <v>2974</v>
+        <v>15641</v>
       </c>
       <c r="F39" t="n">
-        <v>1353</v>
+        <v>15661</v>
       </c>
       <c r="G39" t="n">
-        <v>3517</v>
+        <v>15661</v>
       </c>
       <c r="H39" t="n">
-        <v>0.435304449648712</v>
+        <v>0.511478090255069</v>
       </c>
       <c r="I39" t="n">
-        <v>0.605640107430618</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J39" t="n">
-        <v>0.462945899697249</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="K39" t="s">
         <v>16</v>
@@ -8062,38 +8481,32 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" t="n">
-        <v>5992</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5005</v>
-      </c>
+        <v>2410</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="n">
-        <v>6522</v>
+        <v>3066</v>
       </c>
       <c r="H40" t="n">
-        <v>0.510565780504431</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.541139582657585</v>
-      </c>
+        <v>0.424744448360945</v>
+      </c>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>0.523687168781115</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="K40" t="s">
         <v>16</v>
       </c>
-      <c r="L40" t="s">
-        <v>16</v>
-      </c>
+      <c r="L40"/>
       <c r="M40" t="s">
         <v>16</v>
       </c>
@@ -8103,40 +8516,40 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" t="n">
-        <v>196</v>
+        <v>2974</v>
       </c>
       <c r="F41" t="n">
-        <v>263</v>
+        <v>1353</v>
       </c>
       <c r="G41" t="n">
-        <v>196</v>
+        <v>3517</v>
       </c>
       <c r="H41" t="n">
-        <v>0.487562189054726</v>
+        <v>0.435304449648712</v>
       </c>
       <c r="I41" t="n">
-        <v>0.335031847133758</v>
+        <v>0.605640107430618</v>
       </c>
       <c r="J41" t="n">
-        <v>0.493702770780856</v>
+        <v>0.462945899697249</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L41" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -8144,31 +8557,31 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>2953</v>
+        <v>5992</v>
       </c>
       <c r="F42" t="n">
-        <v>3429</v>
+        <v>5005</v>
       </c>
       <c r="G42" t="n">
-        <v>2692</v>
+        <v>6522</v>
       </c>
       <c r="H42" t="n">
-        <v>0.587194273215351</v>
+        <v>0.510565780504431</v>
       </c>
       <c r="I42" t="n">
-        <v>0.553868518817639</v>
+        <v>0.541139582657585</v>
       </c>
       <c r="J42" t="n">
-        <v>0.564597315436242</v>
+        <v>0.523687168781115</v>
       </c>
       <c r="K42" t="s">
         <v>16</v>
@@ -8185,31 +8598,31 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>6495</v>
+        <v>13231</v>
       </c>
       <c r="F43" t="n">
-        <v>7374</v>
+        <v>15661</v>
       </c>
       <c r="G43" t="n">
-        <v>6094</v>
+        <v>12595</v>
       </c>
       <c r="H43" t="n">
-        <v>0.566951815642458</v>
+        <v>0.531237452822613</v>
       </c>
       <c r="I43" t="n">
-        <v>0.542485102626352</v>
+        <v>0.511797385620915</v>
       </c>
       <c r="J43" t="n">
-        <v>0.553396294950963</v>
+        <v>0.523744178310047</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
@@ -8226,40 +8639,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>6518</v>
+        <v>196</v>
       </c>
       <c r="F44" t="n">
-        <v>7813</v>
+        <v>263</v>
       </c>
       <c r="G44" t="n">
-        <v>6420</v>
+        <v>196</v>
       </c>
       <c r="H44" t="n">
-        <v>0.570253718285214</v>
+        <v>0.487562189054726</v>
       </c>
       <c r="I44" t="n">
-        <v>0.529120953541921</v>
+        <v>0.335031847133758</v>
       </c>
       <c r="J44" t="n">
-        <v>0.567137809187279</v>
+        <v>0.493702770780856</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -8267,32 +8680,38 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
       <c r="E45" t="n">
-        <v>8038</v>
-      </c>
-      <c r="F45"/>
+        <v>2953</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3429</v>
+      </c>
       <c r="G45" t="n">
-        <v>10587</v>
+        <v>2692</v>
       </c>
       <c r="H45" t="n">
-        <v>0.377459497534633</v>
-      </c>
-      <c r="I45"/>
+        <v>0.587194273215351</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.553868518817639</v>
+      </c>
       <c r="J45" t="n">
-        <v>0.422280722747397</v>
+        <v>0.564597315436242</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
       <c r="M45" t="s">
         <v>16</v>
       </c>
@@ -8302,40 +8721,40 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E46" t="n">
-        <v>999</v>
+        <v>6495</v>
       </c>
       <c r="F46" t="n">
-        <v>1136</v>
+        <v>7374</v>
       </c>
       <c r="G46" t="n">
-        <v>999</v>
+        <v>6094</v>
       </c>
       <c r="H46" t="n">
-        <v>0.525236593059937</v>
+        <v>0.566951815642458</v>
       </c>
       <c r="I46" t="n">
-        <v>0.489655172413793</v>
+        <v>0.542485102626352</v>
       </c>
       <c r="J46" t="n">
-        <v>0.533939070016034</v>
+        <v>0.553396294950963</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -8343,40 +8762,40 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" t="n">
-        <v>345</v>
+        <v>6518</v>
       </c>
       <c r="F47" t="n">
-        <v>345</v>
+        <v>7813</v>
       </c>
       <c r="G47" t="n">
-        <v>322</v>
+        <v>6420</v>
       </c>
       <c r="H47" t="n">
-        <v>0.596885813148789</v>
+        <v>0.570253718285214</v>
       </c>
       <c r="I47" t="n">
-        <v>0.553772070626003</v>
+        <v>0.529120953541921</v>
       </c>
       <c r="J47" t="n">
-        <v>0.58018018018018</v>
+        <v>0.567137809187279</v>
       </c>
       <c r="K47" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -8384,38 +8803,32 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" t="n">
-        <v>3733</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5281</v>
-      </c>
+        <v>8038</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="n">
-        <v>3286</v>
+        <v>10587</v>
       </c>
       <c r="H48" t="n">
-        <v>0.604240854645516</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.505407216001531</v>
-      </c>
+        <v>0.377459497534633</v>
+      </c>
+      <c r="I48"/>
       <c r="J48" t="n">
-        <v>0.589417040358744</v>
+        <v>0.422280722747397</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48" t="s">
-        <v>16</v>
-      </c>
+      <c r="L48"/>
       <c r="M48" t="s">
         <v>16</v>
       </c>
@@ -8425,40 +8838,40 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E49" t="n">
-        <v>30690</v>
+        <v>999</v>
       </c>
       <c r="F49" t="n">
-        <v>34399</v>
+        <v>1136</v>
       </c>
       <c r="G49" t="n">
-        <v>29444</v>
+        <v>999</v>
       </c>
       <c r="H49" t="n">
-        <v>0.519755449049063</v>
+        <v>0.525236593059937</v>
       </c>
       <c r="I49" t="n">
-        <v>0.500983062202351</v>
+        <v>0.489655172413793</v>
       </c>
       <c r="J49" t="n">
-        <v>0.518188697840587</v>
+        <v>0.533939070016034</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -8466,40 +8879,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" t="n">
-        <v>59967</v>
+        <v>345</v>
       </c>
       <c r="F50" t="n">
-        <v>60040</v>
+        <v>345</v>
       </c>
       <c r="G50" t="n">
-        <v>60040</v>
+        <v>322</v>
       </c>
       <c r="H50" t="n">
-        <v>0.511153541260005</v>
+        <v>0.596885813148789</v>
       </c>
       <c r="I50" t="n">
-        <v>0.511457534713349</v>
+        <v>0.553772070626003</v>
       </c>
       <c r="J50" t="n">
-        <v>0.511457534713349</v>
+        <v>0.58018018018018</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
@@ -8507,32 +8920,38 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E51" t="n">
-        <v>8038</v>
-      </c>
-      <c r="F51"/>
+        <v>3733</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5281</v>
+      </c>
       <c r="G51" t="n">
-        <v>10587</v>
+        <v>3286</v>
       </c>
       <c r="H51" t="n">
-        <v>0.377459497534633</v>
-      </c>
-      <c r="I51"/>
+        <v>0.604240854645516</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.505407216001531</v>
+      </c>
       <c r="J51" t="n">
-        <v>0.422280722747397</v>
+        <v>0.589417040358744</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
       <c r="M51" t="s">
         <v>16</v>
       </c>
@@ -8542,31 +8961,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>11771</v>
+        <v>30690</v>
       </c>
       <c r="F52" t="n">
-        <v>5281</v>
+        <v>34399</v>
       </c>
       <c r="G52" t="n">
-        <v>13873</v>
+        <v>29444</v>
       </c>
       <c r="H52" t="n">
-        <v>0.428457030539075</v>
+        <v>0.519755449049063</v>
       </c>
       <c r="I52" t="n">
-        <v>0.505407216001531</v>
+        <v>0.500983062202351</v>
       </c>
       <c r="J52" t="n">
-        <v>0.452685505449325</v>
+        <v>0.518188697840587</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
@@ -8583,31 +9002,31 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E53" t="n">
-        <v>29277</v>
+        <v>59967</v>
       </c>
       <c r="F53" t="n">
-        <v>25641</v>
+        <v>60040</v>
       </c>
       <c r="G53" t="n">
-        <v>30596</v>
+        <v>60040</v>
       </c>
       <c r="H53" t="n">
-        <v>0.502436931525656</v>
+        <v>0.511153541260005</v>
       </c>
       <c r="I53" t="n">
-        <v>0.526217497485993</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J53" t="n">
-        <v>0.505142894880219</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
@@ -8627,37 +9046,31 @@
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E54" t="n">
-        <v>226</v>
-      </c>
-      <c r="F54" t="n">
-        <v>319</v>
-      </c>
+        <v>8038</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" t="n">
-        <v>184</v>
+        <v>10587</v>
       </c>
       <c r="H54" t="n">
-        <v>0.658892128279883</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.419736842105263</v>
-      </c>
+        <v>0.377459497534633</v>
+      </c>
+      <c r="I54"/>
       <c r="J54" t="n">
-        <v>0.641114982578397</v>
+        <v>0.422280722747397</v>
       </c>
       <c r="K54" t="s">
-        <v>35</v>
-      </c>
-      <c r="L54" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L54"/>
       <c r="M54" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -8668,28 +9081,28 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
-        <v>3565</v>
+        <v>11771</v>
       </c>
       <c r="F55" t="n">
-        <v>3854</v>
+        <v>5281</v>
       </c>
       <c r="G55" t="n">
-        <v>3553</v>
+        <v>13873</v>
       </c>
       <c r="H55" t="n">
-        <v>0.529481657507797</v>
+        <v>0.428457030539075</v>
       </c>
       <c r="I55" t="n">
-        <v>0.505177611744659</v>
+        <v>0.505407216001531</v>
       </c>
       <c r="J55" t="n">
-        <v>0.532683658170915</v>
+        <v>0.452685505449325</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
@@ -8709,28 +9122,28 @@
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E56" t="n">
-        <v>2994</v>
+        <v>29277</v>
       </c>
       <c r="F56" t="n">
-        <v>3282</v>
+        <v>25641</v>
       </c>
       <c r="G56" t="n">
-        <v>2956</v>
+        <v>30596</v>
       </c>
       <c r="H56" t="n">
-        <v>0.672808988764045</v>
+        <v>0.502436931525656</v>
       </c>
       <c r="I56" t="n">
-        <v>0.612085042894442</v>
+        <v>0.526217497485993</v>
       </c>
       <c r="J56" t="n">
-        <v>0.680322209436134</v>
+        <v>0.505142894880219</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
@@ -8750,28 +9163,28 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E57" t="n">
-        <v>6744</v>
+        <v>51929</v>
       </c>
       <c r="F57" t="n">
-        <v>7840</v>
+        <v>60040</v>
       </c>
       <c r="G57" t="n">
-        <v>6532</v>
+        <v>49453</v>
       </c>
       <c r="H57" t="n">
-        <v>0.636646842254319</v>
+        <v>0.54080314927829</v>
       </c>
       <c r="I57" t="n">
-        <v>0.626949220311875</v>
+        <v>0.511457534713349</v>
       </c>
       <c r="J57" t="n">
-        <v>0.630441077116109</v>
+        <v>0.535675213119726</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
@@ -8788,34 +9201,40 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
         <v>42</v>
       </c>
-      <c r="D58" t="s">
-        <v>41</v>
-      </c>
       <c r="E58" t="n">
-        <v>5165</v>
-      </c>
-      <c r="F58"/>
+        <v>226</v>
+      </c>
+      <c r="F58" t="n">
+        <v>319</v>
+      </c>
       <c r="G58" t="n">
-        <v>6663</v>
+        <v>184</v>
       </c>
       <c r="H58" t="n">
-        <v>0.379528253361746</v>
-      </c>
-      <c r="I58"/>
+        <v>0.658892128279883</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.419736842105263</v>
+      </c>
       <c r="J58" t="n">
-        <v>0.410738503267168</v>
+        <v>0.641114982578397</v>
       </c>
       <c r="K58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58"/>
+        <v>36</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
       <c r="M58" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -8823,40 +9242,40 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
-        <v>219</v>
+        <v>3565</v>
       </c>
       <c r="F59" t="n">
-        <v>243</v>
+        <v>3854</v>
       </c>
       <c r="G59" t="n">
-        <v>219</v>
+        <v>3553</v>
       </c>
       <c r="H59" t="n">
-        <v>0.39963503649635</v>
+        <v>0.529481657507797</v>
       </c>
       <c r="I59" t="n">
-        <v>0.362686567164179</v>
+        <v>0.505177611744659</v>
       </c>
       <c r="J59" t="n">
-        <v>0.426070038910506</v>
+        <v>0.532683658170915</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -8864,40 +9283,40 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" t="n">
-        <v>399</v>
+        <v>2994</v>
       </c>
       <c r="F60" t="n">
-        <v>488</v>
+        <v>3282</v>
       </c>
       <c r="G60" t="n">
-        <v>399</v>
+        <v>2956</v>
       </c>
       <c r="H60" t="n">
-        <v>0.757115749525617</v>
+        <v>0.672808988764045</v>
       </c>
       <c r="I60" t="n">
-        <v>0.64635761589404</v>
+        <v>0.612085042894442</v>
       </c>
       <c r="J60" t="n">
-        <v>0.796407185628742</v>
+        <v>0.680322209436134</v>
       </c>
       <c r="K60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -8905,31 +9324,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E61" t="n">
-        <v>1980</v>
+        <v>6744</v>
       </c>
       <c r="F61" t="n">
-        <v>2679</v>
+        <v>7840</v>
       </c>
       <c r="G61" t="n">
-        <v>1874</v>
+        <v>6532</v>
       </c>
       <c r="H61" t="n">
-        <v>0.665993945509586</v>
+        <v>0.636646842254319</v>
       </c>
       <c r="I61" t="n">
-        <v>0.53505092869982</v>
+        <v>0.626949220311875</v>
       </c>
       <c r="J61" t="n">
-        <v>0.662424885118416</v>
+        <v>0.630441077116109</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
@@ -8946,38 +9365,32 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E62" t="n">
-        <v>30409</v>
-      </c>
-      <c r="F62" t="n">
-        <v>32996</v>
-      </c>
+        <v>5165</v>
+      </c>
+      <c r="F62"/>
       <c r="G62" t="n">
-        <v>29321</v>
+        <v>6663</v>
       </c>
       <c r="H62" t="n">
-        <v>0.546393790203759</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.525899716298492</v>
-      </c>
+        <v>0.379528253361746</v>
+      </c>
+      <c r="I62"/>
       <c r="J62" t="n">
-        <v>0.546004729893298</v>
+        <v>0.410738503267168</v>
       </c>
       <c r="K62" t="s">
         <v>16</v>
       </c>
-      <c r="L62" t="s">
-        <v>16</v>
-      </c>
+      <c r="L62"/>
       <c r="M62" t="s">
         <v>16</v>
       </c>
@@ -8987,40 +9400,40 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E63" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="F63" t="n">
-        <v>51701</v>
+        <v>243</v>
       </c>
       <c r="G63" t="n">
-        <v>51701</v>
+        <v>219</v>
       </c>
       <c r="H63" t="n">
-        <v>0.541768835795871</v>
+        <v>0.39963503649635</v>
       </c>
       <c r="I63" t="n">
-        <v>0.541768835795871</v>
+        <v>0.362686567164179</v>
       </c>
       <c r="J63" t="n">
-        <v>0.541768835795871</v>
+        <v>0.426070038910506</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -9028,34 +9441,40 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E64" t="n">
-        <v>5165</v>
-      </c>
-      <c r="F64"/>
+        <v>399</v>
+      </c>
+      <c r="F64" t="n">
+        <v>488</v>
+      </c>
       <c r="G64" t="n">
-        <v>6663</v>
+        <v>399</v>
       </c>
       <c r="H64" t="n">
-        <v>0.379528253361746</v>
-      </c>
-      <c r="I64"/>
+        <v>0.757115749525617</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.64635761589404</v>
+      </c>
       <c r="J64" t="n">
-        <v>0.410738503267168</v>
+        <v>0.796407185628742</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64"/>
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
       <c r="M64" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -9063,31 +9482,31 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E65" t="n">
-        <v>7145</v>
+        <v>1980</v>
       </c>
       <c r="F65" t="n">
         <v>2679</v>
       </c>
       <c r="G65" t="n">
-        <v>8537</v>
+        <v>1874</v>
       </c>
       <c r="H65" t="n">
-        <v>0.430888915691714</v>
+        <v>0.665993945509586</v>
       </c>
       <c r="I65" t="n">
         <v>0.53505092869982</v>
       </c>
       <c r="J65" t="n">
-        <v>0.448112959949609</v>
+        <v>0.662424885118416</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
@@ -9104,39 +9523,238 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" t="n">
+        <v>30409</v>
+      </c>
+      <c r="F66" t="n">
+        <v>32996</v>
+      </c>
+      <c r="G66" t="n">
+        <v>29321</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.546393790203759</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.525899716298492</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.546004729893298</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" t="n">
+        <v>51701</v>
+      </c>
+      <c r="F67" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G67" t="n">
+        <v>51701</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5165</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="n">
+        <v>6663</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.379528253361746</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68" t="n">
+        <v>0.410738503267168</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7145</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2679</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8537</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.430888915691714</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.53505092869982</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.448112959949609</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
         <v>32</v>
       </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="n">
         <v>21292</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F70" t="n">
         <v>18705</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G70" t="n">
         <v>22380</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H70" t="n">
         <v>0.535297666934835</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I70" t="n">
         <v>0.572228340675477</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J70" t="n">
         <v>0.536317668767524</v>
       </c>
-      <c r="K66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" t="n">
+        <v>46536</v>
+      </c>
+      <c r="F71" t="n">
+        <v>51701</v>
+      </c>
+      <c r="G71" t="n">
+        <v>45038</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.568753742926632</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.541768835795871</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.568604181395819</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" t="s">
         <v>16</v>
       </c>
     </row>

--- a/renter-cost-burden/data/renter-cost-burden-by-re.xlsx
+++ b/renter-cost-burden/data/renter-cost-burden-by-re.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -91,19 +91,19 @@
     <t xml:space="preserve">all households</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">fair</t>
@@ -112,37 +112,37 @@
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t xml:space="preserve">Multirace</t>
   </si>
 </sst>
 </file>
@@ -1139,31 +1139,31 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>3153</v>
+        <v>5483</v>
       </c>
       <c r="G11" t="n">
-        <v>3691</v>
+        <v>7853</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.353594258158574</v>
+        <v>0.436927245198821</v>
       </c>
       <c r="J11" t="n">
-        <v>0.380947466198782</v>
+        <v>0.50006367804381</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>545.229784423503</v>
+        <v>752.167593238867</v>
       </c>
       <c r="M11" t="n">
-        <v>581.039289228792</v>
+        <v>1000.07104970409</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0536227426762578</v>
+        <v>0.0533774429203454</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0522049288600991</v>
+        <v>0.0504674176398512</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -1191,31 +1191,31 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>4334</v>
+        <v>3153</v>
       </c>
       <c r="G12" t="n">
-        <v>4438</v>
+        <v>3691</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.260128443670848</v>
+        <v>0.353594258158574</v>
       </c>
       <c r="J12" t="n">
-        <v>0.262339658331856</v>
+        <v>0.380947466198782</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>613.225133410438</v>
+        <v>545.229784423503</v>
       </c>
       <c r="M12" t="n">
-        <v>610.823188888364</v>
+        <v>581.039289228792</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0322483056966962</v>
+        <v>0.0536227426762578</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0316429545267754</v>
+        <v>0.0522049288600991</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -1243,31 +1243,31 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>21519</v>
+        <v>4334</v>
       </c>
       <c r="G13" t="n">
-        <v>26621</v>
+        <v>4438</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.36541008660214</v>
+        <v>0.260128443670848</v>
       </c>
       <c r="J13" t="n">
-        <v>0.395504315916148</v>
+        <v>0.262339658331856</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>1609.80274891677</v>
+        <v>613.225133410438</v>
       </c>
       <c r="M13" t="n">
-        <v>1706.87557457698</v>
+        <v>610.823188888364</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0212086846557214</v>
+        <v>0.0322483056966962</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0198634170705969</v>
+        <v>0.0316429545267754</v>
       </c>
       <c r="Q13"/>
       <c r="R13" t="s">
@@ -1295,31 +1295,31 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>5483</v>
+        <v>21519</v>
       </c>
       <c r="G14" t="n">
-        <v>7853</v>
+        <v>26621</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.436927245198821</v>
+        <v>0.36541008660214</v>
       </c>
       <c r="J14" t="n">
-        <v>0.50006367804381</v>
+        <v>0.395504315916148</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>752.167593238867</v>
+        <v>1609.80274891677</v>
       </c>
       <c r="M14" t="n">
-        <v>1000.07104970409</v>
+        <v>1706.87557457698</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0533774429203454</v>
+        <v>0.0212086846557214</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0504674176398512</v>
+        <v>0.0198634170705969</v>
       </c>
       <c r="Q14"/>
       <c r="R14" t="s">
@@ -2205,31 +2205,31 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>2159</v>
+        <v>2993</v>
       </c>
       <c r="G29" t="n">
-        <v>2366</v>
+        <v>4257</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.379771328056288</v>
+        <v>0.438213762811127</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3890807432988</v>
+        <v>0.500235017626322</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>485.0618002005</v>
+        <v>580.26217892432</v>
       </c>
       <c r="M29" t="n">
-        <v>494.778018073509</v>
+        <v>787.94546993193</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.0690182615265532</v>
+        <v>0.0826090704172325</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0646434616168924</v>
+        <v>0.0763711303303097</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
@@ -2257,31 +2257,31 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>2918</v>
+        <v>2159</v>
       </c>
       <c r="G30" t="n">
-        <v>2950</v>
+        <v>2366</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>0.236160569763678</v>
+        <v>0.379771328056288</v>
       </c>
       <c r="J30" t="n">
-        <v>0.23609443777511</v>
+        <v>0.3890807432988</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>582.811451399593</v>
+        <v>485.0618002005</v>
       </c>
       <c r="M30" t="n">
-        <v>575.403976020326</v>
+        <v>494.778018073509</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.0399396814855242</v>
+        <v>0.0690182615265532</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0393353921429391</v>
+        <v>0.0646434616168924</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="s">
@@ -2309,31 +2309,31 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>10806</v>
+        <v>2918</v>
       </c>
       <c r="G31" t="n">
-        <v>12714</v>
+        <v>2950</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>0.342308667004562</v>
+        <v>0.236160569763678</v>
       </c>
       <c r="J31" t="n">
-        <v>0.366524446494465</v>
+        <v>0.23609443777511</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>1048.00295657801</v>
+        <v>582.811451399593</v>
       </c>
       <c r="M31" t="n">
-        <v>1171.47147853031</v>
+        <v>575.403976020326</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.0245797639119875</v>
+        <v>0.0399396814855242</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0249178534171349</v>
+        <v>0.0393353921429391</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
@@ -2361,31 +2361,31 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>2993</v>
+        <v>10806</v>
       </c>
       <c r="G32" t="n">
-        <v>4257</v>
+        <v>12714</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>0.438213762811127</v>
+        <v>0.342308667004562</v>
       </c>
       <c r="J32" t="n">
-        <v>0.500235017626322</v>
+        <v>0.366524446494465</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>580.26217892432</v>
+        <v>1048.00295657801</v>
       </c>
       <c r="M32" t="n">
-        <v>787.94546993193</v>
+        <v>1171.47147853031</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.0826090704172325</v>
+        <v>0.0245797639119875</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0763711303303097</v>
+        <v>0.0249178534171349</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
@@ -3271,38 +3271,38 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="G47" t="n">
-        <v>142</v>
+        <v>512</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.439628482972136</v>
+        <v>0.484375</v>
       </c>
       <c r="J47" t="n">
-        <v>0.421364985163205</v>
+        <v>0.535564853556485</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>101.500632411823</v>
+        <v>197.094410337407</v>
       </c>
       <c r="M47" t="n">
-        <v>101.500632411823</v>
+        <v>250.751370467342</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.246517704586168</v>
+        <v>0.176365354836009</v>
       </c>
       <c r="P47" t="n">
-        <v>0.236245996889008</v>
+        <v>0.168396833888428</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T47" t="s">
         <v>24</v>
@@ -3323,31 +3323,31 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="G48" t="n">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>0.401060070671378</v>
+        <v>0.439628482972136</v>
       </c>
       <c r="J48" t="n">
-        <v>0.401060070671378</v>
+        <v>0.421364985163205</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>141.810545063652</v>
+        <v>101.500632411823</v>
       </c>
       <c r="M48" t="n">
-        <v>141.810545063652</v>
+        <v>101.500632411823</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.201726748263077</v>
+        <v>0.246517704586168</v>
       </c>
       <c r="P48" t="n">
-        <v>0.201726748263077</v>
+        <v>0.236245996889008</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
@@ -3375,38 +3375,38 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>1638</v>
+        <v>227</v>
       </c>
       <c r="G49" t="n">
-        <v>2185</v>
+        <v>227</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>0.414368833797116</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="J49" t="n">
-        <v>0.465587044534413</v>
+        <v>0.401060070671378</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>431.131245939099</v>
+        <v>141.810545063652</v>
       </c>
       <c r="M49" t="n">
-        <v>475.666192954681</v>
+        <v>141.810545063652</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.07821942554942</v>
+        <v>0.201726748263077</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0728713035791795</v>
+        <v>0.201726748263077</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s">
         <v>24</v>
@@ -3427,38 +3427,38 @@
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
-        <v>403</v>
+        <v>1638</v>
       </c>
       <c r="G50" t="n">
-        <v>512</v>
+        <v>2185</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>0.484375</v>
+        <v>0.414368833797116</v>
       </c>
       <c r="J50" t="n">
-        <v>0.535564853556485</v>
+        <v>0.465587044534413</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>197.094410337407</v>
+        <v>431.131245939099</v>
       </c>
       <c r="M50" t="n">
-        <v>250.751370467342</v>
+        <v>475.666192954681</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.176365354836009</v>
+        <v>0.07821942554942</v>
       </c>
       <c r="P50" t="n">
-        <v>0.168396833888428</v>
+        <v>0.0728713035791795</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
         <v>30</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T50" t="s">
         <v>24</v>
@@ -4337,38 +4337,38 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>470</v>
+        <v>1325</v>
       </c>
       <c r="G65" t="n">
-        <v>789</v>
+        <v>2160</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>0.260243632336656</v>
+        <v>0.40006038647343</v>
       </c>
       <c r="J65" t="n">
-        <v>0.374821852731591</v>
+        <v>0.495412844036697</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>196.167888095886</v>
+        <v>333.901571602696</v>
       </c>
       <c r="M65" t="n">
-        <v>249.499921658304</v>
+        <v>486.556547208287</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.0988627203641892</v>
+        <v>0.0807015689477752</v>
       </c>
       <c r="P65" t="n">
-        <v>0.102529541402848</v>
+        <v>0.075231161349281</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="s">
         <v>30</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T65" t="s">
         <v>24</v>
@@ -4389,31 +4389,31 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>760</v>
+        <v>470</v>
       </c>
       <c r="G66" t="n">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>0.348943985307622</v>
+        <v>0.260243632336656</v>
       </c>
       <c r="J66" t="n">
-        <v>0.349615558570782</v>
+        <v>0.374821852731591</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>282.886675934463</v>
+        <v>196.167888095886</v>
       </c>
       <c r="M66" t="n">
-        <v>279.885281171143</v>
+        <v>249.499921658304</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.115948190567395</v>
+        <v>0.0988627203641892</v>
       </c>
       <c r="P66" t="n">
-        <v>0.114142807059021</v>
+        <v>0.102529541402848</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
@@ -4441,38 +4441,38 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>5483</v>
+        <v>760</v>
       </c>
       <c r="G67" t="n">
-        <v>6865</v>
+        <v>773</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.391670833630974</v>
+        <v>0.348943985307622</v>
       </c>
       <c r="J67" t="n">
-        <v>0.418725221103995</v>
+        <v>0.349615558570782</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>815.880034807508</v>
+        <v>282.886675934463</v>
       </c>
       <c r="M67" t="n">
-        <v>822.197428846928</v>
+        <v>279.885281171143</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.0469727905362499</v>
+        <v>0.115948190567395</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0410504952763588</v>
+        <v>0.114142807059021</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T67" t="s">
         <v>24</v>
@@ -4493,35 +4493,35 @@
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>1325</v>
+        <v>5483</v>
       </c>
       <c r="G68" t="n">
-        <v>2160</v>
+        <v>6865</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>0.40006038647343</v>
+        <v>0.391670833630974</v>
       </c>
       <c r="J68" t="n">
-        <v>0.495412844036697</v>
+        <v>0.418725221103995</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>333.901571602696</v>
+        <v>815.880034807508</v>
       </c>
       <c r="M68" t="n">
-        <v>486.556547208287</v>
+        <v>822.197428846928</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>0.0807015689477752</v>
+        <v>0.0469727905362499</v>
       </c>
       <c r="P68" t="n">
-        <v>0.075231161349281</v>
+        <v>0.0410504952763588</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S68" t="s">
         <v>23</v>
@@ -5403,31 +5403,31 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>382</v>
+        <v>762</v>
       </c>
       <c r="G83" t="n">
-        <v>394</v>
+        <v>924</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.346328195829556</v>
+        <v>0.483809523809524</v>
       </c>
       <c r="J83" t="n">
-        <v>0.337907375643225</v>
+        <v>0.492012779552716</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>179.438889231822</v>
+        <v>336.250433845445</v>
       </c>
       <c r="M83" t="n">
-        <v>182.179943808999</v>
+        <v>355.853843182141</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0.153630595701977</v>
+        <v>0.136717921031579</v>
       </c>
       <c r="P83" t="n">
-        <v>0.145951950902937</v>
+        <v>0.125898942635115</v>
       </c>
       <c r="Q83"/>
       <c r="R83" t="s">
@@ -5455,35 +5455,35 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="G84" t="n">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.274823830877643</v>
+        <v>0.346328195829556</v>
       </c>
       <c r="J84" t="n">
-        <v>0.296656534954407</v>
+        <v>0.337907375643225</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>218.144305309009</v>
+        <v>179.438889231822</v>
       </c>
       <c r="M84" t="n">
-        <v>236.197312254501</v>
+        <v>182.179943808999</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.112700529672534</v>
+        <v>0.153630595701977</v>
       </c>
       <c r="P84" t="n">
-        <v>0.11142215620972</v>
+        <v>0.145951950902937</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S84" t="s">
         <v>30</v>
@@ -5507,38 +5507,38 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>3592</v>
+        <v>429</v>
       </c>
       <c r="G85" t="n">
-        <v>4857</v>
+        <v>488</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.383351120597652</v>
+        <v>0.274823830877643</v>
       </c>
       <c r="J85" t="n">
-        <v>0.421139339287263</v>
+        <v>0.296656534954407</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>624.080242221503</v>
+        <v>218.144305309009</v>
       </c>
       <c r="M85" t="n">
-        <v>738.182454857876</v>
+        <v>236.197312254501</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.0569512083500349</v>
+        <v>0.112700529672534</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0508432651880575</v>
+        <v>0.11142215620972</v>
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S85" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T85" t="s">
         <v>24</v>
@@ -5559,38 +5559,38 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>762</v>
+        <v>3592</v>
       </c>
       <c r="G86" t="n">
-        <v>924</v>
+        <v>4857</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>0.483809523809524</v>
+        <v>0.383351120597652</v>
       </c>
       <c r="J86" t="n">
-        <v>0.492012779552716</v>
+        <v>0.421139339287263</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>336.250433845445</v>
+        <v>624.080242221503</v>
       </c>
       <c r="M86" t="n">
-        <v>355.853843182141</v>
+        <v>738.182454857876</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.136717921031579</v>
+        <v>0.0569512083500349</v>
       </c>
       <c r="P86" t="n">
-        <v>0.125898942635115</v>
+        <v>0.0508432651880575</v>
       </c>
       <c r="Q86"/>
       <c r="R86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T86" t="s">
         <v>24</v>
@@ -6538,38 +6538,38 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>25853</v>
+        <v>8636</v>
       </c>
       <c r="G11" t="n">
-        <v>31059</v>
+        <v>11544</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.3421926910299</v>
+        <v>0.402310630764931</v>
       </c>
       <c r="J11" t="n">
-        <v>0.36875786574217</v>
+        <v>0.454613476154846</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>1692.24392955219</v>
+        <v>916.113999002717</v>
       </c>
       <c r="M11" t="n">
-        <v>1774.60084754608</v>
+        <v>1073.18399320259</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0191010045154718</v>
+        <v>0.0405277421074703</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0181708255871558</v>
+        <v>0.0363332414221684</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -6590,38 +6590,38 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>8636</v>
+        <v>25853</v>
       </c>
       <c r="G12" t="n">
-        <v>11544</v>
+        <v>31059</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.402310630764931</v>
+        <v>0.3421926910299</v>
       </c>
       <c r="J12" t="n">
-        <v>0.454613476154846</v>
+        <v>0.36875786574217</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>916.113999002717</v>
+        <v>1692.24392955219</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.18399320259</v>
+        <v>1774.60084754608</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0405277421074703</v>
+        <v>0.0191010045154718</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0363332414221684</v>
+        <v>0.0181708255871558</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -7500,38 +7500,38 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>13724</v>
+        <v>5152</v>
       </c>
       <c r="G27" t="n">
-        <v>15664</v>
+        <v>6623</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.31244877515709</v>
+        <v>0.411666000799041</v>
       </c>
       <c r="J27" t="n">
-        <v>0.331983977279953</v>
+        <v>0.453909944486327</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>1215.10277562178</v>
+        <v>745.396949714546</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.67580120593</v>
+        <v>863.337312083174</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>0.02269735392862</v>
+        <v>0.0566472297863577</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0226763127814739</v>
+        <v>0.049883649351014</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
@@ -7552,38 +7552,38 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>5152</v>
+        <v>13724</v>
       </c>
       <c r="G28" t="n">
-        <v>6623</v>
+        <v>15664</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>0.411666000799041</v>
+        <v>0.31244877515709</v>
       </c>
       <c r="J28" t="n">
-        <v>0.453909944486327</v>
+        <v>0.331983977279953</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>745.396949714546</v>
+        <v>1215.10277562178</v>
       </c>
       <c r="M28" t="n">
-        <v>863.337312083174</v>
+        <v>1302.67580120593</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.0566472297863577</v>
+        <v>0.02269735392862</v>
       </c>
       <c r="P28" t="n">
-        <v>0.049883649351014</v>
+        <v>0.0226763127814739</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
@@ -8462,45 +8462,45 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>1865</v>
+        <v>545</v>
       </c>
       <c r="G43" t="n">
-        <v>2412</v>
+        <v>654</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>0.412701925204691</v>
+        <v>0.471861471861472</v>
       </c>
       <c r="J43" t="n">
-        <v>0.458642327438677</v>
+        <v>0.505800464037123</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>427.546702815903</v>
+        <v>229.284617863366</v>
       </c>
       <c r="M43" t="n">
-        <v>474.893152226109</v>
+        <v>273.188146880955</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.0704390139455296</v>
+        <v>0.148589319380663</v>
       </c>
       <c r="P43" t="n">
-        <v>0.067966684804476</v>
+        <v>0.141192017970853</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T43" t="s">
         <v>24</v>
@@ -8514,45 +8514,45 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>545</v>
+        <v>1865</v>
       </c>
       <c r="G44" t="n">
-        <v>654</v>
+        <v>2412</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>0.471861471861472</v>
+        <v>0.412701925204691</v>
       </c>
       <c r="J44" t="n">
-        <v>0.505800464037123</v>
+        <v>0.458642327438677</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>229.284617863366</v>
+        <v>427.546702815903</v>
       </c>
       <c r="M44" t="n">
-        <v>273.188146880955</v>
+        <v>474.893152226109</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.148589319380663</v>
+        <v>0.0704390139455296</v>
       </c>
       <c r="P44" t="n">
-        <v>0.141192017970853</v>
+        <v>0.067966684804476</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T44" t="s">
         <v>24</v>
@@ -9424,38 +9424,38 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>6243</v>
+        <v>1795</v>
       </c>
       <c r="G59" t="n">
-        <v>7638</v>
+        <v>2949</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>0.385918279038141</v>
+        <v>0.350722938647909</v>
       </c>
       <c r="J59" t="n">
-        <v>0.410512737826508</v>
+        <v>0.45614849187935</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>857.234974866139</v>
+        <v>402.914702764431</v>
       </c>
       <c r="M59" t="n">
-        <v>880.290745284619</v>
+        <v>574.793813498588</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.045076723775804</v>
+        <v>0.0630107259905209</v>
       </c>
       <c r="P59" t="n">
-        <v>0.039357133198447</v>
+        <v>0.0592242860477775</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
@@ -9476,38 +9476,38 @@
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>1795</v>
+        <v>6243</v>
       </c>
       <c r="G60" t="n">
-        <v>2949</v>
+        <v>7638</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>0.350722938647909</v>
+        <v>0.385918279038141</v>
       </c>
       <c r="J60" t="n">
-        <v>0.45614849187935</v>
+        <v>0.410512737826508</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>402.914702764431</v>
+        <v>857.234974866139</v>
       </c>
       <c r="M60" t="n">
-        <v>574.793813498588</v>
+        <v>880.290745284619</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>0.0630107259905209</v>
+        <v>0.045076723775804</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0592242860477775</v>
+        <v>0.039357133198447</v>
       </c>
       <c r="Q60"/>
       <c r="R60" t="s">
@@ -10386,45 +10386,45 @@
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>49</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>4021</v>
+        <v>1144</v>
       </c>
       <c r="G75" t="n">
-        <v>5345</v>
+        <v>1318</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>0.367852895435001</v>
+        <v>0.427184466019417</v>
       </c>
       <c r="J75" t="n">
-        <v>0.405600242828957</v>
+        <v>0.432982917214192</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>647.714232762026</v>
+        <v>370.017876720166</v>
       </c>
       <c r="M75" t="n">
-        <v>733.138409712825</v>
+        <v>396.204490842482</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.0514076602844163</v>
+        <v>0.0996559824386602</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0456495375361428</v>
+        <v>0.0931210038164862</v>
       </c>
       <c r="Q75"/>
       <c r="R75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T75" t="s">
         <v>24</v>
@@ -10438,45 +10438,45 @@
         <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>1144</v>
+        <v>4021</v>
       </c>
       <c r="G76" t="n">
-        <v>1318</v>
+        <v>5345</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>0.427184466019417</v>
+        <v>0.367852895435001</v>
       </c>
       <c r="J76" t="n">
-        <v>0.432982917214192</v>
+        <v>0.405600242828957</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>370.017876720166</v>
+        <v>647.714232762026</v>
       </c>
       <c r="M76" t="n">
-        <v>396.204490842482</v>
+        <v>733.138409712825</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>0.0996559824386602</v>
+        <v>0.0514076602844163</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0931210038164862</v>
+        <v>0.0456495375361428</v>
       </c>
       <c r="Q76"/>
       <c r="R76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T76" t="s">
         <v>24</v>
